--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7877.214981788836</v>
+        <v>8084.369600020773</v>
       </c>
       <c r="AB2" t="n">
-        <v>10777.95305628249</v>
+        <v>11061.39114396421</v>
       </c>
       <c r="AC2" t="n">
-        <v>9749.320343542608</v>
+        <v>10005.70749794382</v>
       </c>
       <c r="AD2" t="n">
-        <v>7877214.981788835</v>
+        <v>8084369.600020773</v>
       </c>
       <c r="AE2" t="n">
-        <v>10777953.05628249</v>
+        <v>11061391.1439642</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.585205910265527e-07</v>
+        <v>8.483831407059803e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.14127604166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9749320.343542608</v>
+        <v>10005707.49794382</v>
       </c>
     </row>
     <row r="3">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3675.102436315268</v>
+        <v>3809.168702211156</v>
       </c>
       <c r="AB3" t="n">
-        <v>5028.437287443479</v>
+        <v>5211.872667028464</v>
       </c>
       <c r="AC3" t="n">
-        <v>4548.53029018574</v>
+        <v>4714.458854596302</v>
       </c>
       <c r="AD3" t="n">
-        <v>3675102.436315268</v>
+        <v>3809168.702211156</v>
       </c>
       <c r="AE3" t="n">
-        <v>5028437.28744348</v>
+        <v>5211872.667028464</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271346697036842e-07</v>
+        <v>1.345389513300382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4548530.29018574</v>
+        <v>4714458.854596302</v>
       </c>
     </row>
     <row r="4">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2982.619397764375</v>
+        <v>3092.294551941458</v>
       </c>
       <c r="AB4" t="n">
-        <v>4080.951443902556</v>
+        <v>4231.013828373966</v>
       </c>
       <c r="AC4" t="n">
-        <v>3691.471165747667</v>
+        <v>3827.211806858999</v>
       </c>
       <c r="AD4" t="n">
-        <v>2982619.397764375</v>
+        <v>3092294.551941458</v>
       </c>
       <c r="AE4" t="n">
-        <v>4080951.443902556</v>
+        <v>4231013.828373966</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.29743940633878e-07</v>
+        <v>1.535243529108949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.3154296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3691471.165747667</v>
+        <v>3827211.806858999</v>
       </c>
     </row>
     <row r="5">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2682.829761917756</v>
+        <v>2780.394656335732</v>
       </c>
       <c r="AB5" t="n">
-        <v>3670.766038351883</v>
+        <v>3804.258631153929</v>
       </c>
       <c r="AC5" t="n">
-        <v>3320.433279603933</v>
+        <v>3441.185526706977</v>
       </c>
       <c r="AD5" t="n">
-        <v>2682829.761917755</v>
+        <v>2780394.656335732</v>
       </c>
       <c r="AE5" t="n">
-        <v>3670766.038351883</v>
+        <v>3804258.631153929</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.857635607959491e-07</v>
+        <v>1.638894493153662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.15657552083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3320433.279603933</v>
+        <v>3441185.526706977</v>
       </c>
     </row>
     <row r="6">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2511.944906166798</v>
+        <v>2621.619970835331</v>
       </c>
       <c r="AB6" t="n">
-        <v>3436.953839805644</v>
+        <v>3587.016101807506</v>
       </c>
       <c r="AC6" t="n">
-        <v>3108.935789129474</v>
+        <v>3244.67631945958</v>
       </c>
       <c r="AD6" t="n">
-        <v>2511944.906166798</v>
+        <v>2621619.97083533</v>
       </c>
       <c r="AE6" t="n">
-        <v>3436953.839805644</v>
+        <v>3587016.101807506</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.197487970276057e-07</v>
+        <v>1.701776078007455e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.5234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3108935.789129474</v>
+        <v>3244676.31945958</v>
       </c>
     </row>
     <row r="7">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2405.060850293253</v>
+        <v>2502.540403856658</v>
       </c>
       <c r="AB7" t="n">
-        <v>3290.710359167701</v>
+        <v>3424.08618484755</v>
       </c>
       <c r="AC7" t="n">
-        <v>2976.649581029608</v>
+        <v>3097.296205100713</v>
       </c>
       <c r="AD7" t="n">
-        <v>2405060.850293253</v>
+        <v>2502540.403856657</v>
       </c>
       <c r="AE7" t="n">
-        <v>3290710.359167702</v>
+        <v>3424086.18484755</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.434637695628823e-07</v>
+        <v>1.745654986119717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.10677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2976649.581029608</v>
+        <v>3097296.205100713</v>
       </c>
     </row>
     <row r="8">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2315.029765860547</v>
+        <v>2412.594570769973</v>
       </c>
       <c r="AB8" t="n">
-        <v>3167.525857555744</v>
+        <v>3301.01832788824</v>
       </c>
       <c r="AC8" t="n">
-        <v>2865.221635360967</v>
+        <v>2985.973771682784</v>
       </c>
       <c r="AD8" t="n">
-        <v>2315029.765860547</v>
+        <v>2412594.570769973</v>
       </c>
       <c r="AE8" t="n">
-        <v>3167525.857555744</v>
+        <v>3301018.32788824</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.605497537123142e-07</v>
+        <v>1.777268530153355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.8203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2865221.635360966</v>
+        <v>2985973.771682784</v>
       </c>
     </row>
     <row r="9">
@@ -6319,28 +6319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2249.589015802739</v>
+        <v>2347.153820712165</v>
       </c>
       <c r="AB9" t="n">
-        <v>3077.98693628451</v>
+        <v>3211.479406617008</v>
       </c>
       <c r="AC9" t="n">
-        <v>2784.228183067198</v>
+        <v>2904.980319389015</v>
       </c>
       <c r="AD9" t="n">
-        <v>2249589.015802739</v>
+        <v>2347153.820712165</v>
       </c>
       <c r="AE9" t="n">
-        <v>3077986.93628451</v>
+        <v>3211479.406617008</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.743679266856252e-07</v>
+        <v>1.802835767951051e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.59733072916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2784228.183067198</v>
+        <v>2904980.319389015</v>
       </c>
     </row>
     <row r="10">
@@ -6425,28 +6425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2198.490801845293</v>
+        <v>2295.885014554126</v>
       </c>
       <c r="AB10" t="n">
-        <v>3008.072105653829</v>
+        <v>3141.331164211479</v>
       </c>
       <c r="AC10" t="n">
-        <v>2720.98592574583</v>
+        <v>2841.526926784996</v>
       </c>
       <c r="AD10" t="n">
-        <v>2198490.801845293</v>
+        <v>2295885.014554127</v>
       </c>
       <c r="AE10" t="n">
-        <v>3008072.105653829</v>
+        <v>3141331.164211479</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.845448243484014e-07</v>
+        <v>1.821665693085841e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.4345703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2720985.92574583</v>
+        <v>2841526.926784996</v>
       </c>
     </row>
     <row r="11">
@@ -6531,28 +6531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2156.817238373536</v>
+        <v>2254.211451082372</v>
       </c>
       <c r="AB11" t="n">
-        <v>2951.052497603733</v>
+        <v>3084.311556161556</v>
       </c>
       <c r="AC11" t="n">
-        <v>2669.408189060626</v>
+        <v>2789.949190099838</v>
       </c>
       <c r="AD11" t="n">
-        <v>2156817.238373536</v>
+        <v>2254211.451082372</v>
       </c>
       <c r="AE11" t="n">
-        <v>2951052.497603733</v>
+        <v>3084311.556161556</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.923875711710913e-07</v>
+        <v>1.8361768280521e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2669408.189060626</v>
+        <v>2789949.190099838</v>
       </c>
     </row>
     <row r="12">
@@ -6637,28 +6637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2113.190327688331</v>
+        <v>2210.584540397167</v>
       </c>
       <c r="AB12" t="n">
-        <v>2891.360233720774</v>
+        <v>3024.619292278593</v>
       </c>
       <c r="AC12" t="n">
-        <v>2615.412871064038</v>
+        <v>2735.953872103248</v>
       </c>
       <c r="AD12" t="n">
-        <v>2113190.327688331</v>
+        <v>2210584.540397167</v>
       </c>
       <c r="AE12" t="n">
-        <v>2891360.233720773</v>
+        <v>3024619.292278592</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.999502198929708e-07</v>
+        <v>1.850169708198137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.19856770833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2615412.871064038</v>
+        <v>2735953.872103248</v>
       </c>
     </row>
     <row r="13">
@@ -6743,28 +6743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2077.411112666016</v>
+        <v>2162.780406470314</v>
       </c>
       <c r="AB13" t="n">
-        <v>2842.405533259677</v>
+        <v>2959.211567270154</v>
       </c>
       <c r="AC13" t="n">
-        <v>2571.130338506595</v>
+        <v>2676.78856856941</v>
       </c>
       <c r="AD13" t="n">
-        <v>2077411.112666016</v>
+        <v>2162780.406470314</v>
       </c>
       <c r="AE13" t="n">
-        <v>2842405.533259677</v>
+        <v>2959211.567270154</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.005272083808368e-06</v>
+        <v>1.860016549782385e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.11555989583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2571130.338506595</v>
+        <v>2676788.56856941</v>
       </c>
     </row>
     <row r="14">
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2044.636705640083</v>
+        <v>2130.005999444381</v>
       </c>
       <c r="AB14" t="n">
-        <v>2797.562143662006</v>
+        <v>2914.368177672482</v>
       </c>
       <c r="AC14" t="n">
-        <v>2530.566739074032</v>
+        <v>2636.224969136847</v>
       </c>
       <c r="AD14" t="n">
-        <v>2044636.705640083</v>
+        <v>2130005.999444381</v>
       </c>
       <c r="AE14" t="n">
-        <v>2797562.143662006</v>
+        <v>2914368.177672482</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.010500581690161e-06</v>
+        <v>1.869690639759891e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2530566.739074032</v>
+        <v>2636224.969136847</v>
       </c>
     </row>
     <row r="15">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2000.042010534754</v>
+        <v>2097.521474589609</v>
       </c>
       <c r="AB15" t="n">
-        <v>2736.545714439797</v>
+        <v>2869.921417650089</v>
       </c>
       <c r="AC15" t="n">
-        <v>2475.373632219695</v>
+        <v>2596.020145509571</v>
       </c>
       <c r="AD15" t="n">
-        <v>2000042.010534754</v>
+        <v>2097521.474589609</v>
       </c>
       <c r="AE15" t="n">
-        <v>2736545.714439797</v>
+        <v>2869921.417650089</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.01479541923592e-06</v>
+        <v>1.877637213669986e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2475373.632219695</v>
+        <v>2596020.145509571</v>
       </c>
     </row>
     <row r="16">
@@ -7061,28 +7061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1968.96098655071</v>
+        <v>2066.440450605563</v>
       </c>
       <c r="AB16" t="n">
-        <v>2694.019286226824</v>
+        <v>2827.394989437116</v>
       </c>
       <c r="AC16" t="n">
-        <v>2436.905866629151</v>
+        <v>2557.552379919027</v>
       </c>
       <c r="AD16" t="n">
-        <v>1968960.98655071</v>
+        <v>2066440.450605563</v>
       </c>
       <c r="AE16" t="n">
-        <v>2694019.286226823</v>
+        <v>2827394.989437116</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.018156596445644e-06</v>
+        <v>1.883856271512669e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.92513020833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2436905.866629151</v>
+        <v>2557552.379919027</v>
       </c>
     </row>
     <row r="17">
@@ -7167,28 +7167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1940.529739437999</v>
+        <v>2038.009203492853</v>
       </c>
       <c r="AB17" t="n">
-        <v>2655.118399629114</v>
+        <v>2788.494102839406</v>
       </c>
       <c r="AC17" t="n">
-        <v>2401.717626050589</v>
+        <v>2522.364139340466</v>
       </c>
       <c r="AD17" t="n">
-        <v>1940529.739437999</v>
+        <v>2038009.203492853</v>
       </c>
       <c r="AE17" t="n">
-        <v>2655118.399629114</v>
+        <v>2788494.102839406</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.021424407621765e-06</v>
+        <v>1.889902577748611e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.8779296875</v>
       </c>
       <c r="AH17" t="n">
-        <v>2401717.62605059</v>
+        <v>2522364.139340466</v>
       </c>
     </row>
     <row r="18">
@@ -7273,28 +7273,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1911.165801209404</v>
+        <v>2008.645265264258</v>
       </c>
       <c r="AB18" t="n">
-        <v>2614.941363899223</v>
+        <v>2748.317067109515</v>
       </c>
       <c r="AC18" t="n">
-        <v>2365.375030221936</v>
+        <v>2486.021543511812</v>
       </c>
       <c r="AD18" t="n">
-        <v>1911165.801209404</v>
+        <v>2008645.265264258</v>
       </c>
       <c r="AE18" t="n">
-        <v>2614941.363899223</v>
+        <v>2748317.067109515</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.023851924495454e-06</v>
+        <v>1.894394119523881e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.84212239583333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2365375.030221935</v>
+        <v>2486021.543511812</v>
       </c>
     </row>
     <row r="19">
@@ -7379,28 +7379,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1894.479112684637</v>
+        <v>1991.95857673949</v>
       </c>
       <c r="AB19" t="n">
-        <v>2592.109900494895</v>
+        <v>2725.485603705187</v>
       </c>
       <c r="AC19" t="n">
-        <v>2344.722569640757</v>
+        <v>2465.369082930633</v>
       </c>
       <c r="AD19" t="n">
-        <v>1894479.112684637</v>
+        <v>1991958.57673949</v>
       </c>
       <c r="AE19" t="n">
-        <v>2592109.900494895</v>
+        <v>2725485.603705187</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.025439147066713e-06</v>
+        <v>1.897330896838482e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.8193359375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2344722.569640757</v>
+        <v>2465369.082930633</v>
       </c>
     </row>
     <row r="20">
@@ -7485,28 +7485,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1885.369229052867</v>
+        <v>1982.84869310772</v>
       </c>
       <c r="AB20" t="n">
-        <v>2579.645355810206</v>
+        <v>2713.021059020498</v>
       </c>
       <c r="AC20" t="n">
-        <v>2333.447623606676</v>
+        <v>2454.094136896552</v>
       </c>
       <c r="AD20" t="n">
-        <v>1885369.229052867</v>
+        <v>1982848.69310772</v>
       </c>
       <c r="AE20" t="n">
-        <v>2579645.355810206</v>
+        <v>2713021.059020498</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.026279441369144e-06</v>
+        <v>1.898885661299152e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.80794270833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2333447.623606676</v>
+        <v>2454094.136896552</v>
       </c>
     </row>
     <row r="21">
@@ -7591,28 +7591,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1892.872937261038</v>
+        <v>1990.352401315892</v>
       </c>
       <c r="AB21" t="n">
-        <v>2589.912260420869</v>
+        <v>2723.287963631161</v>
       </c>
       <c r="AC21" t="n">
-        <v>2342.734669250988</v>
+        <v>2463.381182540865</v>
       </c>
       <c r="AD21" t="n">
-        <v>1892872.937261038</v>
+        <v>1990352.401315892</v>
       </c>
       <c r="AE21" t="n">
-        <v>2589912.260420869</v>
+        <v>2723287.963631161</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.026746271537161e-06</v>
+        <v>1.899749419332858e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.80143229166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2342734.669250988</v>
+        <v>2463381.182540865</v>
       </c>
     </row>
     <row r="22">
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1901.631932135565</v>
+        <v>1999.111396190418</v>
       </c>
       <c r="AB22" t="n">
-        <v>2601.896703627778</v>
+        <v>2735.272406838069</v>
       </c>
       <c r="AC22" t="n">
-        <v>2353.575334018501</v>
+        <v>2474.221847308377</v>
       </c>
       <c r="AD22" t="n">
-        <v>1901631.932135565</v>
+        <v>1999111.396190418</v>
       </c>
       <c r="AE22" t="n">
-        <v>2601896.703627778</v>
+        <v>2735272.406838069</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.026746271537161e-06</v>
+        <v>1.899749419332858e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.80143229166667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2353575.334018501</v>
+        <v>2474221.847308377</v>
       </c>
     </row>
   </sheetData>
@@ -7994,28 +7994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5415.154203117509</v>
+        <v>5591.439203399125</v>
       </c>
       <c r="AB2" t="n">
-        <v>7409.252880448545</v>
+        <v>7650.453794979194</v>
       </c>
       <c r="AC2" t="n">
-        <v>6702.124184489984</v>
+        <v>6920.30522226543</v>
       </c>
       <c r="AD2" t="n">
-        <v>5415154.203117509</v>
+        <v>5591439.203399125</v>
       </c>
       <c r="AE2" t="n">
-        <v>7409252.880448544</v>
+        <v>7650453.794979194</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629989516797937e-07</v>
+        <v>1.073162890880323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.92154947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6702124.184489984</v>
+        <v>6920305.22226543</v>
       </c>
     </row>
     <row r="3">
@@ -8100,28 +8100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2947.809434332813</v>
+        <v>3065.275963459393</v>
       </c>
       <c r="AB3" t="n">
-        <v>4033.322916228288</v>
+        <v>4194.045803636805</v>
       </c>
       <c r="AC3" t="n">
-        <v>3648.388237907574</v>
+        <v>3793.771958517805</v>
       </c>
       <c r="AD3" t="n">
-        <v>2947809.434332813</v>
+        <v>3065275.963459393</v>
       </c>
       <c r="AE3" t="n">
-        <v>4033322.916228288</v>
+        <v>4194045.803636804</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.119972871456554e-07</v>
+        <v>1.547792146788622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.3603515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3648388.237907575</v>
+        <v>3793771.958517805</v>
       </c>
     </row>
     <row r="4">
@@ -8206,28 +8206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2461.995495299641</v>
+        <v>2567.698312293503</v>
       </c>
       <c r="AB4" t="n">
-        <v>3368.610852244711</v>
+        <v>3513.238109734891</v>
       </c>
       <c r="AC4" t="n">
-        <v>3047.115360381374</v>
+        <v>3177.939595402316</v>
       </c>
       <c r="AD4" t="n">
-        <v>2461995.495299641</v>
+        <v>2567698.312293503</v>
       </c>
       <c r="AE4" t="n">
-        <v>3368610.852244711</v>
+        <v>3513238.109734891</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.04719708420763e-07</v>
+        <v>1.724535391812659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.37630208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3047115.360381374</v>
+        <v>3177939.595402316</v>
       </c>
     </row>
     <row r="5">
@@ -8312,28 +8312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2244.250394054725</v>
+        <v>2338.274839770442</v>
       </c>
       <c r="AB5" t="n">
-        <v>3070.682398485507</v>
+        <v>3199.330793179549</v>
       </c>
       <c r="AC5" t="n">
-        <v>2777.620780103749</v>
+        <v>2893.991152567342</v>
       </c>
       <c r="AD5" t="n">
-        <v>2244250.394054725</v>
+        <v>2338274.839770442</v>
       </c>
       <c r="AE5" t="n">
-        <v>3070682.398485507</v>
+        <v>3199330.793179549</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.534955654456894e-07</v>
+        <v>1.817509702997179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.48763020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2777620.780103749</v>
+        <v>2893991.152567342</v>
       </c>
     </row>
     <row r="6">
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2111.049589367879</v>
+        <v>2216.752316853194</v>
       </c>
       <c r="AB6" t="n">
-        <v>2888.431181108022</v>
+        <v>3033.058316128823</v>
       </c>
       <c r="AC6" t="n">
-        <v>2612.763363121696</v>
+        <v>2743.587487361456</v>
       </c>
       <c r="AD6" t="n">
-        <v>2111049.58936788</v>
+        <v>2216752.316853194</v>
       </c>
       <c r="AE6" t="n">
-        <v>2888431.181108023</v>
+        <v>3033058.316128823</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.833405947936147e-07</v>
+        <v>1.874398934989291e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.98795572916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2612763.363121696</v>
+        <v>2743587.487361456</v>
       </c>
     </row>
     <row r="7">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2023.227973139909</v>
+        <v>2117.337670201647</v>
       </c>
       <c r="AB7" t="n">
-        <v>2768.269771368648</v>
+        <v>2897.034810715331</v>
       </c>
       <c r="AC7" t="n">
-        <v>2504.06998968025</v>
+        <v>2620.545874394553</v>
       </c>
       <c r="AD7" t="n">
-        <v>2023227.973139909</v>
+        <v>2117337.670201647</v>
       </c>
       <c r="AE7" t="n">
-        <v>2768269.771368647</v>
+        <v>2897034.810715331</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.003913382014029e-06</v>
+        <v>1.913613842478999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.6591796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2504069.98968025</v>
+        <v>2620545.874394553</v>
       </c>
     </row>
     <row r="8">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1957.873677033058</v>
+        <v>2051.812781894203</v>
       </c>
       <c r="AB8" t="n">
-        <v>2678.849140207198</v>
+        <v>2807.380767779033</v>
       </c>
       <c r="AC8" t="n">
-        <v>2423.183538054204</v>
+        <v>2539.448287485856</v>
       </c>
       <c r="AD8" t="n">
-        <v>1957873.677033058</v>
+        <v>2051812.781894203</v>
       </c>
       <c r="AE8" t="n">
-        <v>2678849.140207198</v>
+        <v>2807380.767779033</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.01849784619376e-06</v>
+        <v>1.941414082060904e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.43619791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2423183.538054204</v>
+        <v>2539448.287485856</v>
       </c>
     </row>
     <row r="9">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1899.323584572657</v>
+        <v>1993.262689433802</v>
       </c>
       <c r="AB9" t="n">
-        <v>2598.7383206551</v>
+        <v>2727.269948226935</v>
       </c>
       <c r="AC9" t="n">
-        <v>2350.718382683917</v>
+        <v>2466.983132115569</v>
       </c>
       <c r="AD9" t="n">
-        <v>1899323.584572657</v>
+        <v>1993262.689433802</v>
       </c>
       <c r="AE9" t="n">
-        <v>2598738.3206551</v>
+        <v>2727269.948226935</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.030281320564138e-06</v>
+        <v>1.963875202782709e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.2587890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2350718.382683917</v>
+        <v>2466983.132115569</v>
       </c>
     </row>
     <row r="10">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1847.791145034252</v>
+        <v>1930.137219471824</v>
       </c>
       <c r="AB10" t="n">
-        <v>2528.229363427874</v>
+        <v>2640.898895325771</v>
       </c>
       <c r="AC10" t="n">
-        <v>2286.938701374515</v>
+        <v>2388.855211280757</v>
       </c>
       <c r="AD10" t="n">
-        <v>1847791.145034252</v>
+        <v>1930137.219471824</v>
       </c>
       <c r="AE10" t="n">
-        <v>2528229.363427875</v>
+        <v>2640898.895325771</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.039650148547143e-06</v>
+        <v>1.981733634832013e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.1220703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2286938.701374515</v>
+        <v>2388855.211280757</v>
       </c>
     </row>
     <row r="11">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1796.07761271998</v>
+        <v>1878.423687157552</v>
       </c>
       <c r="AB11" t="n">
-        <v>2457.472627075459</v>
+        <v>2570.142158973354</v>
       </c>
       <c r="AC11" t="n">
-        <v>2222.93488863187</v>
+        <v>2324.851398538112</v>
       </c>
       <c r="AD11" t="n">
-        <v>1796077.61271998</v>
+        <v>1878423.687157552</v>
       </c>
       <c r="AE11" t="n">
-        <v>2457472.627075458</v>
+        <v>2570142.158973354</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.046314572576292e-06</v>
+        <v>1.994437055568115e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.0244140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2222934.888631871</v>
+        <v>2324851.398538112</v>
       </c>
     </row>
     <row r="12">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1745.016677325862</v>
+        <v>1839.041033533028</v>
       </c>
       <c r="AB12" t="n">
-        <v>2387.608802619739</v>
+        <v>2516.257074844225</v>
       </c>
       <c r="AC12" t="n">
-        <v>2159.738769527712</v>
+        <v>2276.109031210076</v>
       </c>
       <c r="AD12" t="n">
-        <v>1745016.677325862</v>
+        <v>1839041.033533028</v>
       </c>
       <c r="AE12" t="n">
-        <v>2387608.802619739</v>
+        <v>2516257.074844225</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.05297899660544e-06</v>
+        <v>2.007140476304218e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.92838541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2159738.769527712</v>
+        <v>2276109.031210077</v>
       </c>
     </row>
     <row r="13">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1706.12528103175</v>
+        <v>1800.149637238917</v>
       </c>
       <c r="AB13" t="n">
-        <v>2334.395878442825</v>
+        <v>2463.044150667311</v>
       </c>
       <c r="AC13" t="n">
-        <v>2111.604412149435</v>
+        <v>2227.974673831799</v>
       </c>
       <c r="AD13" t="n">
-        <v>1706125.28103175</v>
+        <v>1800149.637238916</v>
       </c>
       <c r="AE13" t="n">
-        <v>2334395.878442825</v>
+        <v>2463044.150667311</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.057615117669196e-06</v>
+        <v>2.01597763855542e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.86490885416667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2111604.412149434</v>
+        <v>2227974.673831799</v>
       </c>
     </row>
     <row r="14">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1690.966781030779</v>
+        <v>1784.991137237945</v>
       </c>
       <c r="AB14" t="n">
-        <v>2313.655349995674</v>
+        <v>2442.303622220159</v>
       </c>
       <c r="AC14" t="n">
-        <v>2092.843330627764</v>
+        <v>2209.213592310128</v>
       </c>
       <c r="AD14" t="n">
-        <v>1690966.781030779</v>
+        <v>1784991.137237945</v>
       </c>
       <c r="AE14" t="n">
-        <v>2313655.349995674</v>
+        <v>2442303.622220159</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.059353663068104e-06</v>
+        <v>2.019291574399621e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.84049479166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2092843.330627764</v>
+        <v>2209213.592310128</v>
       </c>
     </row>
     <row r="15">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1696.653991054254</v>
+        <v>1790.67834726142</v>
       </c>
       <c r="AB15" t="n">
-        <v>2321.436841651791</v>
+        <v>2450.085113876275</v>
       </c>
       <c r="AC15" t="n">
-        <v>2099.882167641614</v>
+        <v>2216.252429323978</v>
       </c>
       <c r="AD15" t="n">
-        <v>1696653.991054254</v>
+        <v>1790678.34726142</v>
       </c>
       <c r="AE15" t="n">
-        <v>2321436.841651791</v>
+        <v>2450085.113876276</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.059257077212609e-06</v>
+        <v>2.019107466852721e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.84049479166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2099882.167641614</v>
+        <v>2216252.429323978</v>
       </c>
     </row>
     <row r="16">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1704.767059584369</v>
+        <v>1798.791415791536</v>
       </c>
       <c r="AB16" t="n">
-        <v>2332.537499938017</v>
+        <v>2461.185772162502</v>
       </c>
       <c r="AC16" t="n">
-        <v>2109.923394680874</v>
+        <v>2226.293656363239</v>
       </c>
       <c r="AD16" t="n">
-        <v>1704767.059584369</v>
+        <v>1798791.415791536</v>
       </c>
       <c r="AE16" t="n">
-        <v>2332537.499938017</v>
+        <v>2461185.772162503</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.059257077212609e-06</v>
+        <v>2.019107466852721e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.84049479166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2109923.394680874</v>
+        <v>2226293.656363239</v>
       </c>
     </row>
   </sheetData>
@@ -9775,28 +9775,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2109.268430422065</v>
+        <v>2213.902855333976</v>
       </c>
       <c r="AB2" t="n">
-        <v>2885.994120859173</v>
+        <v>3029.159557168859</v>
       </c>
       <c r="AC2" t="n">
-        <v>2610.558892482561</v>
+        <v>2740.060820484689</v>
       </c>
       <c r="AD2" t="n">
-        <v>2109268.430422065</v>
+        <v>2213902.855333976</v>
       </c>
       <c r="AE2" t="n">
-        <v>2885994.120859173</v>
+        <v>3029159.557168859</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.954008839057955e-07</v>
+        <v>1.906969553680679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.59147135416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2610558.892482561</v>
+        <v>2740060.820484689</v>
       </c>
     </row>
     <row r="3">
@@ -9881,28 +9881,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1511.895427955888</v>
+        <v>1595.517716539395</v>
       </c>
       <c r="AB3" t="n">
-        <v>2068.64202464807</v>
+        <v>2183.057729043028</v>
       </c>
       <c r="AC3" t="n">
-        <v>1871.213733172974</v>
+        <v>1974.709763323927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1511895.427955888</v>
+        <v>1595517.716539395</v>
       </c>
       <c r="AE3" t="n">
-        <v>2068642.02464807</v>
+        <v>2183057.729043028</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.070105365467097e-06</v>
+        <v>2.279044378730798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.39322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1871213.733172974</v>
+        <v>1974709.763323927</v>
       </c>
     </row>
     <row r="4">
@@ -9987,28 +9987,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1319.354838388292</v>
+        <v>1403.062378317819</v>
       </c>
       <c r="AB4" t="n">
-        <v>1805.19949571037</v>
+        <v>1919.731844757978</v>
       </c>
       <c r="AC4" t="n">
-        <v>1632.913789453177</v>
+        <v>1736.515331854842</v>
       </c>
       <c r="AD4" t="n">
-        <v>1319354.838388292</v>
+        <v>1403062.378317819</v>
       </c>
       <c r="AE4" t="n">
-        <v>1805199.49571037</v>
+        <v>1919731.844757978</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.131321988247368e-06</v>
+        <v>2.409419764682968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.50618489583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1632913.789453177</v>
+        <v>1736515.331854842</v>
       </c>
     </row>
     <row r="5">
@@ -10093,28 +10093,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1243.044523318556</v>
+        <v>1326.58147104749</v>
       </c>
       <c r="AB5" t="n">
-        <v>1700.788356058456</v>
+        <v>1815.087293331217</v>
       </c>
       <c r="AC5" t="n">
-        <v>1538.467502427687</v>
+        <v>1641.857909546701</v>
       </c>
       <c r="AD5" t="n">
-        <v>1243044.523318555</v>
+        <v>1326581.47104749</v>
       </c>
       <c r="AE5" t="n">
-        <v>1700788.356058456</v>
+        <v>1815087.293331217</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153092688602324e-06</v>
+        <v>2.455785658982859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.21158854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1538467.502427687</v>
+        <v>1641857.909546701</v>
       </c>
     </row>
     <row r="6">
@@ -10199,28 +10199,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1248.502315275156</v>
+        <v>1332.039263004091</v>
       </c>
       <c r="AB6" t="n">
-        <v>1708.255947794265</v>
+        <v>1822.554885067025</v>
       </c>
       <c r="AC6" t="n">
-        <v>1545.22239768906</v>
+        <v>1648.612804808074</v>
       </c>
       <c r="AD6" t="n">
-        <v>1248502.315275156</v>
+        <v>1332039.263004091</v>
       </c>
       <c r="AE6" t="n">
-        <v>1708255.947794265</v>
+        <v>1822554.885067025</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.154170446045638e-06</v>
+        <v>2.458081000284833e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.19856770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1545222.39768906</v>
+        <v>1648612.804808074</v>
       </c>
     </row>
   </sheetData>
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2995.495719807957</v>
+        <v>3126.986590653219</v>
       </c>
       <c r="AB2" t="n">
-        <v>4098.569395785824</v>
+        <v>4278.48100624413</v>
       </c>
       <c r="AC2" t="n">
-        <v>3707.407685030144</v>
+        <v>3870.148783893835</v>
       </c>
       <c r="AD2" t="n">
-        <v>2995495.719807957</v>
+        <v>3126986.590653219</v>
       </c>
       <c r="AE2" t="n">
-        <v>4098569.395785824</v>
+        <v>4278481.00624413</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.6298169619558e-07</v>
+        <v>1.549116630207123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.99544270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3707407.685030145</v>
+        <v>3870148.783893835</v>
       </c>
     </row>
     <row r="3">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1981.913382972067</v>
+        <v>2080.488955187277</v>
       </c>
       <c r="AB3" t="n">
-        <v>2711.741326429925</v>
+        <v>2846.616773182096</v>
       </c>
       <c r="AC3" t="n">
-        <v>2452.936540188308</v>
+        <v>2574.93966360133</v>
       </c>
       <c r="AD3" t="n">
-        <v>1981913.382972067</v>
+        <v>2080488.955187277</v>
       </c>
       <c r="AE3" t="n">
-        <v>2711741.326429925</v>
+        <v>2846616.773182096</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.683681203606606e-07</v>
+        <v>1.966122079852068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.3291015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2452936.540188308</v>
+        <v>2574939.66360133</v>
       </c>
     </row>
     <row r="4">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1728.27927249294</v>
+        <v>1815.968389516522</v>
       </c>
       <c r="AB4" t="n">
-        <v>2364.707946925149</v>
+        <v>2484.688065407627</v>
       </c>
       <c r="AC4" t="n">
-        <v>2139.023539359061</v>
+        <v>2247.552923726725</v>
       </c>
       <c r="AD4" t="n">
-        <v>1728279.27249294</v>
+        <v>1815968.389516522</v>
       </c>
       <c r="AE4" t="n">
-        <v>2364707.946925149</v>
+        <v>2484688.065407627</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.040542064595378e-06</v>
+        <v>2.112660139466255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.12630208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2139023.539359061</v>
+        <v>2247552.923726725</v>
       </c>
     </row>
     <row r="5">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1585.072158713591</v>
+        <v>1672.846527083194</v>
       </c>
       <c r="AB5" t="n">
-        <v>2168.765656000276</v>
+        <v>2288.862419135404</v>
       </c>
       <c r="AC5" t="n">
-        <v>1961.781705673325</v>
+        <v>2070.416602291702</v>
       </c>
       <c r="AD5" t="n">
-        <v>1585072.158713591</v>
+        <v>1672846.527083194</v>
       </c>
       <c r="AE5" t="n">
-        <v>2168765.656000276</v>
+        <v>2288862.419135404</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.078691149405157e-06</v>
+        <v>2.190115970976611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.556640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1961781.705673325</v>
+        <v>2070416.602291702</v>
       </c>
     </row>
     <row r="6">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1492.26664805385</v>
+        <v>1579.870424222861</v>
       </c>
       <c r="AB6" t="n">
-        <v>2041.785062025448</v>
+        <v>2161.648413385729</v>
       </c>
       <c r="AC6" t="n">
-        <v>1846.919961369072</v>
+        <v>1955.343722704797</v>
       </c>
       <c r="AD6" t="n">
-        <v>1492266.64805385</v>
+        <v>1579870.424222861</v>
       </c>
       <c r="AE6" t="n">
-        <v>2041785.062025448</v>
+        <v>2161648.413385729</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.101683705925645e-06</v>
+        <v>2.236798809967988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.23274739583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1846919.961369072</v>
+        <v>1955343.722704797</v>
       </c>
     </row>
     <row r="7">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1421.087439426502</v>
+        <v>1497.890101258456</v>
       </c>
       <c r="AB7" t="n">
-        <v>1944.394528576451</v>
+        <v>2049.479318789236</v>
       </c>
       <c r="AC7" t="n">
-        <v>1758.824243743974</v>
+        <v>1853.87988906628</v>
       </c>
       <c r="AD7" t="n">
-        <v>1421087.439426502</v>
+        <v>1497890.101258456</v>
       </c>
       <c r="AE7" t="n">
-        <v>1944394.528576451</v>
+        <v>2049479.318789236</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.116530917311072e-06</v>
+        <v>2.266943782231478e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.029296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1758824.243743974</v>
+        <v>1853879.88906628</v>
       </c>
     </row>
     <row r="8">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1396.200147926106</v>
+        <v>1483.889175441137</v>
       </c>
       <c r="AB8" t="n">
-        <v>1910.342638395797</v>
+        <v>2030.322634408727</v>
       </c>
       <c r="AC8" t="n">
-        <v>1728.022218170034</v>
+        <v>1836.551491756471</v>
       </c>
       <c r="AD8" t="n">
-        <v>1396200.147926106</v>
+        <v>1483889.175441137</v>
       </c>
       <c r="AE8" t="n">
-        <v>1910342.638395797</v>
+        <v>2030322.634408727</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.119727191984324e-06</v>
+        <v>2.273433324871535e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1728022.218170034</v>
+        <v>1836551.491756472</v>
       </c>
     </row>
     <row r="9">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1407.510229743276</v>
+        <v>1495.199257258307</v>
       </c>
       <c r="AB9" t="n">
-        <v>1925.817591303643</v>
+        <v>2045.797587316573</v>
       </c>
       <c r="AC9" t="n">
-        <v>1742.020263291588</v>
+        <v>1850.549536878026</v>
       </c>
       <c r="AD9" t="n">
-        <v>1407510.229743276</v>
+        <v>1495199.257258307</v>
       </c>
       <c r="AE9" t="n">
-        <v>1925817.591303643</v>
+        <v>2045797.587316573</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.11931476944584e-06</v>
+        <v>2.272595964530882e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.99348958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1742020.263291588</v>
+        <v>1850549.536878026</v>
       </c>
     </row>
   </sheetData>
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1564.020657533452</v>
+        <v>1654.353800860373</v>
       </c>
       <c r="AB2" t="n">
-        <v>2139.962063358924</v>
+        <v>2263.559855275838</v>
       </c>
       <c r="AC2" t="n">
-        <v>1935.727087487567</v>
+        <v>2047.528879614521</v>
       </c>
       <c r="AD2" t="n">
-        <v>1564020.657533452</v>
+        <v>1654353.800860373</v>
       </c>
       <c r="AE2" t="n">
-        <v>2139962.063358924</v>
+        <v>2263559.855275838</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009646294636209e-06</v>
+        <v>2.248285089960486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.04524739583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1935727.087487567</v>
+        <v>2047528.879614521</v>
       </c>
     </row>
     <row r="3">
@@ -11641,28 +11641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1160.346745980076</v>
+        <v>1240.718652356024</v>
       </c>
       <c r="AB3" t="n">
-        <v>1587.637608735501</v>
+        <v>1697.605996797335</v>
       </c>
       <c r="AC3" t="n">
-        <v>1436.115703621163</v>
+        <v>1535.588863067978</v>
       </c>
       <c r="AD3" t="n">
-        <v>1160346.745980076</v>
+        <v>1240718.652356024</v>
       </c>
       <c r="AE3" t="n">
-        <v>1587637.608735501</v>
+        <v>1697605.996797335</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.15784714764046e-06</v>
+        <v>2.578299442411448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.73404947916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1436115.703621163</v>
+        <v>1535588.863067978</v>
       </c>
     </row>
     <row r="4">
@@ -11747,28 +11747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1116.109384604835</v>
+        <v>1196.310698780191</v>
       </c>
       <c r="AB4" t="n">
-        <v>1527.110099287252</v>
+        <v>1636.845075574239</v>
       </c>
       <c r="AC4" t="n">
-        <v>1381.364854723761</v>
+        <v>1480.626878887925</v>
       </c>
       <c r="AD4" t="n">
-        <v>1116109.384604835</v>
+        <v>1196310.698780191</v>
       </c>
       <c r="AE4" t="n">
-        <v>1527110.099287252</v>
+        <v>1636845.075574239</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.175756616281457e-06</v>
+        <v>2.618180330925159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1381364.854723762</v>
+        <v>1480626.878887925</v>
       </c>
     </row>
     <row r="5">
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1125.265008174175</v>
+        <v>1205.466322349531</v>
       </c>
       <c r="AB5" t="n">
-        <v>1539.637227372427</v>
+        <v>1649.372203659414</v>
       </c>
       <c r="AC5" t="n">
-        <v>1392.696411286422</v>
+        <v>1491.958435450586</v>
       </c>
       <c r="AD5" t="n">
-        <v>1125265.008174175</v>
+        <v>1205466.322349531</v>
       </c>
       <c r="AE5" t="n">
-        <v>1539637.227372427</v>
+        <v>1649372.203659414</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.176652089713506e-06</v>
+        <v>2.620174375350845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.4833984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1392696.411286422</v>
+        <v>1491958.435450586</v>
       </c>
     </row>
   </sheetData>
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5957.629689186352</v>
+        <v>6135.617551899638</v>
       </c>
       <c r="AB2" t="n">
-        <v>8151.491772817364</v>
+        <v>8395.022618852012</v>
       </c>
       <c r="AC2" t="n">
-        <v>7373.524838709925</v>
+        <v>7593.813442596705</v>
       </c>
       <c r="AD2" t="n">
-        <v>5957629.689186352</v>
+        <v>6135617.551899638</v>
       </c>
       <c r="AE2" t="n">
-        <v>8151491.772817364</v>
+        <v>8395022.618852012</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.350649151190803e-07</v>
+        <v>1.011681301861914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7373524.838709924</v>
+        <v>7593813.442596705</v>
       </c>
     </row>
     <row r="3">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3119.239792684029</v>
+        <v>3238.012095959948</v>
       </c>
       <c r="AB3" t="n">
-        <v>4267.881495498078</v>
+        <v>4430.39100070441</v>
       </c>
       <c r="AC3" t="n">
-        <v>3860.560875576881</v>
+        <v>4007.560701689837</v>
       </c>
       <c r="AD3" t="n">
-        <v>3119239.792684029</v>
+        <v>3238012.095959948</v>
       </c>
       <c r="AE3" t="n">
-        <v>4267881.495498078</v>
+        <v>4430391.00070441</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.89579693169462e-07</v>
+        <v>1.492908597327179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.72981770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3860560.875576881</v>
+        <v>4007560.701689837</v>
       </c>
     </row>
     <row r="4">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2586.117208082408</v>
+        <v>2693.012281030734</v>
       </c>
       <c r="AB4" t="n">
-        <v>3538.439655537603</v>
+        <v>3684.698210223301</v>
       </c>
       <c r="AC4" t="n">
-        <v>3200.735941044209</v>
+        <v>3333.035784545868</v>
       </c>
       <c r="AD4" t="n">
-        <v>2586117.208082408</v>
+        <v>2693012.281030735</v>
       </c>
       <c r="AE4" t="n">
-        <v>3538439.655537603</v>
+        <v>3684698.210223301</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.850107701593947e-07</v>
+        <v>1.673346210557292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3200735.941044209</v>
+        <v>3333035.784545869</v>
       </c>
     </row>
     <row r="5">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2349.835076475228</v>
+        <v>2456.644808568984</v>
       </c>
       <c r="AB5" t="n">
-        <v>3215.148019040686</v>
+        <v>3361.289806604187</v>
       </c>
       <c r="AC5" t="n">
-        <v>2908.298804591908</v>
+        <v>3040.493025061629</v>
       </c>
       <c r="AD5" t="n">
-        <v>2349835.076475228</v>
+        <v>2456644.808568983</v>
       </c>
       <c r="AE5" t="n">
-        <v>3215148.019040687</v>
+        <v>3361289.806604187</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.35645714720753e-07</v>
+        <v>1.769084924096639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.65201822916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2908298.804591908</v>
+        <v>3040493.025061629</v>
       </c>
     </row>
     <row r="6">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2219.860168817583</v>
+        <v>2314.792760092297</v>
       </c>
       <c r="AB6" t="n">
-        <v>3037.310616295252</v>
+        <v>3167.201575807667</v>
       </c>
       <c r="AC6" t="n">
-        <v>2747.433953968141</v>
+        <v>2864.928302607794</v>
       </c>
       <c r="AD6" t="n">
-        <v>2219860.168817583</v>
+        <v>2314792.760092297</v>
       </c>
       <c r="AE6" t="n">
-        <v>3037310.616295252</v>
+        <v>3167201.575807667</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.665627035550041e-07</v>
+        <v>1.827541643327659e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.1181640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2747433.953968141</v>
+        <v>2864928.302607794</v>
       </c>
     </row>
     <row r="7">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2116.7436849317</v>
+        <v>2211.761527552437</v>
       </c>
       <c r="AB7" t="n">
-        <v>2896.222093864208</v>
+        <v>3026.229698029442</v>
       </c>
       <c r="AC7" t="n">
-        <v>2619.810722099046</v>
+        <v>2737.410582989455</v>
       </c>
       <c r="AD7" t="n">
-        <v>2116743.6849317</v>
+        <v>2211761.527552437</v>
       </c>
       <c r="AE7" t="n">
-        <v>2896222.093864208</v>
+        <v>3026229.698029442</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.878121509890714e-07</v>
+        <v>1.867719326514304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.771484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2619810.722099046</v>
+        <v>2737410.582989455</v>
       </c>
     </row>
     <row r="8">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2047.773893318208</v>
+        <v>2142.791735938943</v>
       </c>
       <c r="AB8" t="n">
-        <v>2801.854582246168</v>
+        <v>2931.862186411226</v>
       </c>
       <c r="AC8" t="n">
-        <v>2534.449513344198</v>
+        <v>2652.049374234561</v>
       </c>
       <c r="AD8" t="n">
-        <v>2047773.893318208</v>
+        <v>2142791.735938943</v>
       </c>
       <c r="AE8" t="n">
-        <v>2801854.582246169</v>
+        <v>2931862.186411226</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.003605659217094e-06</v>
+        <v>1.897581118071945e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.5224609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2534449.513344198</v>
+        <v>2652049.374234561</v>
       </c>
     </row>
     <row r="9">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1992.581605844301</v>
+        <v>2087.428856264444</v>
       </c>
       <c r="AB9" t="n">
-        <v>2726.338059612493</v>
+        <v>2856.112252002703</v>
       </c>
       <c r="AC9" t="n">
-        <v>2466.140181642575</v>
+        <v>2583.528907250286</v>
       </c>
       <c r="AD9" t="n">
-        <v>1992581.605844301</v>
+        <v>2087428.856264444</v>
       </c>
       <c r="AE9" t="n">
-        <v>2726338.059612493</v>
+        <v>2856112.252002703</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.014708974092553e-06</v>
+        <v>1.918574862439742e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.35319010416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2466140.181642575</v>
+        <v>2583528.907250287</v>
       </c>
     </row>
     <row r="10">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1940.823360204864</v>
+        <v>2035.670610625006</v>
       </c>
       <c r="AB10" t="n">
-        <v>2655.520144515973</v>
+        <v>2785.294336906183</v>
       </c>
       <c r="AC10" t="n">
-        <v>2402.081028969299</v>
+        <v>2519.46975457701</v>
       </c>
       <c r="AD10" t="n">
-        <v>1940823.360204864</v>
+        <v>2035670.610625006</v>
       </c>
       <c r="AE10" t="n">
-        <v>2655520.144515973</v>
+        <v>2785294.336906183</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.024376515492737e-06</v>
+        <v>1.936853898484116e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2402081.028969299</v>
+        <v>2519469.75457701</v>
       </c>
     </row>
     <row r="11">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1897.450945786611</v>
+        <v>1980.591647588305</v>
       </c>
       <c r="AB11" t="n">
-        <v>2596.17609365304</v>
+        <v>2709.932869767013</v>
       </c>
       <c r="AC11" t="n">
-        <v>2348.400691030825</v>
+        <v>2451.300680091119</v>
       </c>
       <c r="AD11" t="n">
-        <v>1897450.945786611</v>
+        <v>1980591.647588305</v>
       </c>
       <c r="AE11" t="n">
-        <v>2596176.09365304</v>
+        <v>2709932.869767013</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03251256518596e-06</v>
+        <v>1.952237245650174e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.08951822916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2348400.691030825</v>
+        <v>2451300.680091119</v>
       </c>
     </row>
     <row r="12">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1854.602763320094</v>
+        <v>1937.743465121787</v>
       </c>
       <c r="AB12" t="n">
-        <v>2537.549320073953</v>
+        <v>2651.306096187926</v>
       </c>
       <c r="AC12" t="n">
-        <v>2295.369174438933</v>
+        <v>2398.269163499227</v>
       </c>
       <c r="AD12" t="n">
-        <v>1854602.763320094</v>
+        <v>1937743.465121788</v>
       </c>
       <c r="AE12" t="n">
-        <v>2537549.320073953</v>
+        <v>2651306.096187926</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.038159940855375e-06</v>
+        <v>1.962915098388967e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.00651041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2295369.174438933</v>
+        <v>2398269.163499227</v>
       </c>
     </row>
     <row r="13">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1800.319099521078</v>
+        <v>1895.251601287241</v>
       </c>
       <c r="AB13" t="n">
-        <v>2463.276016437911</v>
+        <v>2593.16685348077</v>
       </c>
       <c r="AC13" t="n">
-        <v>2228.184410658679</v>
+        <v>2345.678648517102</v>
       </c>
       <c r="AD13" t="n">
-        <v>1800319.099521078</v>
+        <v>1895251.601287241</v>
       </c>
       <c r="AE13" t="n">
-        <v>2463276.016437911</v>
+        <v>2593166.85348077</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.043328725366364e-06</v>
+        <v>1.972688048353286e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.931640625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2228184.410658679</v>
+        <v>2345678.648517102</v>
       </c>
     </row>
     <row r="14">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1761.289647486186</v>
+        <v>1856.222149252349</v>
       </c>
       <c r="AB14" t="n">
-        <v>2409.87419830587</v>
+        <v>2539.76503534873</v>
       </c>
       <c r="AC14" t="n">
-        <v>2179.879187099238</v>
+        <v>2297.373424957661</v>
       </c>
       <c r="AD14" t="n">
-        <v>1761289.647486186</v>
+        <v>1856222.149252349</v>
       </c>
       <c r="AE14" t="n">
-        <v>2409874.19830587</v>
+        <v>2539765.03534873</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.048497509877353e-06</v>
+        <v>1.982460998317605e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.8583984375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2179879.187099238</v>
+        <v>2297373.424957661</v>
       </c>
     </row>
     <row r="15">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1743.627723075693</v>
+        <v>1838.560224841856</v>
       </c>
       <c r="AB15" t="n">
-        <v>2385.708374138322</v>
+        <v>2515.599211181181</v>
       </c>
       <c r="AC15" t="n">
-        <v>2158.019715273293</v>
+        <v>2275.513953131716</v>
       </c>
       <c r="AD15" t="n">
-        <v>1743627.723075693</v>
+        <v>1838560.224841856</v>
       </c>
       <c r="AE15" t="n">
-        <v>2385708.374138322</v>
+        <v>2515599.211181181</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.050124719815998e-06</v>
+        <v>1.985537667750816e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.83561197916667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2158019.715273293</v>
+        <v>2275513.953131716</v>
       </c>
     </row>
     <row r="16">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1744.442565921172</v>
+        <v>1839.375067687334</v>
       </c>
       <c r="AB16" t="n">
-        <v>2386.823278067835</v>
+        <v>2516.714115110694</v>
       </c>
       <c r="AC16" t="n">
-        <v>2159.028214336551</v>
+        <v>2276.522452194974</v>
       </c>
       <c r="AD16" t="n">
-        <v>1744442.565921172</v>
+        <v>1839375.067687334</v>
       </c>
       <c r="AE16" t="n">
-        <v>2386823.278067835</v>
+        <v>2516714.115110694</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.050699029206108e-06</v>
+        <v>1.986623551080185e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.82747395833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2159028.214336551</v>
+        <v>2276522.452194974</v>
       </c>
     </row>
     <row r="17">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1751.054256667229</v>
+        <v>1845.986758433392</v>
       </c>
       <c r="AB17" t="n">
-        <v>2395.869685033801</v>
+        <v>2525.76052207666</v>
       </c>
       <c r="AC17" t="n">
-        <v>2167.211244918397</v>
+        <v>2284.70548277682</v>
       </c>
       <c r="AD17" t="n">
-        <v>1751054.256667229</v>
+        <v>1845986.758433393</v>
       </c>
       <c r="AE17" t="n">
-        <v>2395869.685033801</v>
+        <v>2525760.52207666</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.050794747437793e-06</v>
+        <v>1.98680453163508e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.82584635416667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2167211.244918397</v>
+        <v>2284705.48277682</v>
       </c>
     </row>
     <row r="18">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1759.332696097746</v>
+        <v>1854.265197863909</v>
       </c>
       <c r="AB18" t="n">
-        <v>2407.196611081605</v>
+        <v>2537.087448124464</v>
       </c>
       <c r="AC18" t="n">
-        <v>2177.457145041639</v>
+        <v>2294.951382900063</v>
       </c>
       <c r="AD18" t="n">
-        <v>1759332.696097746</v>
+        <v>1854265.197863909</v>
       </c>
       <c r="AE18" t="n">
-        <v>2407196.611081605</v>
+        <v>2537087.448124464</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.050794747437793e-06</v>
+        <v>1.98680453163508e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.82584635416667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2177457.145041639</v>
+        <v>2294951.382900062</v>
       </c>
     </row>
   </sheetData>
@@ -14143,28 +14143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.444002476343</v>
+        <v>1368.46971113894</v>
       </c>
       <c r="AB2" t="n">
-        <v>1751.959973390715</v>
+        <v>1872.400631403067</v>
       </c>
       <c r="AC2" t="n">
-        <v>1584.75537242157</v>
+        <v>1693.701343072749</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280444.002476343</v>
+        <v>1368469.71113894</v>
       </c>
       <c r="AE2" t="n">
-        <v>1751959.973390714</v>
+        <v>1872400.631403067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.081823444425908e-06</v>
+        <v>2.480152456097072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.23470052083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1584755.37242157</v>
+        <v>1693701.343072749</v>
       </c>
     </row>
     <row r="3">
@@ -14249,28 +14249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1037.586096282413</v>
+        <v>1115.982808160803</v>
       </c>
       <c r="AB3" t="n">
-        <v>1419.671072001523</v>
+        <v>1526.936911812368</v>
       </c>
       <c r="AC3" t="n">
-        <v>1284.179657410561</v>
+        <v>1381.20819601841</v>
       </c>
       <c r="AD3" t="n">
-        <v>1037586.096282413</v>
+        <v>1115982.808160803</v>
       </c>
       <c r="AE3" t="n">
-        <v>1419671.072001523</v>
+        <v>1526936.911812368</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183201435564931e-06</v>
+        <v>2.71256826758012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.75846354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1284179.657410561</v>
+        <v>1381208.19601841</v>
       </c>
     </row>
     <row r="4">
@@ -14355,28 +14355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1047.905265797432</v>
+        <v>1126.301977675822</v>
       </c>
       <c r="AB4" t="n">
-        <v>1433.790214981601</v>
+        <v>1541.056054792446</v>
       </c>
       <c r="AC4" t="n">
-        <v>1296.951289200962</v>
+        <v>1393.979827808811</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047905.265797432</v>
+        <v>1126301.977675822</v>
       </c>
       <c r="AE4" t="n">
-        <v>1433790.214981601</v>
+        <v>1541056.054792446</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183659641174599e-06</v>
+        <v>2.713618734524676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.751953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1296951.289200962</v>
+        <v>1393979.827808811</v>
       </c>
     </row>
   </sheetData>
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4071.549270453177</v>
+        <v>4219.602708265146</v>
       </c>
       <c r="AB2" t="n">
-        <v>5570.873335910936</v>
+        <v>5773.44658118198</v>
       </c>
       <c r="AC2" t="n">
-        <v>5039.19700350122</v>
+        <v>5222.436942556922</v>
       </c>
       <c r="AD2" t="n">
-        <v>4071549.270453176</v>
+        <v>4219602.708265146</v>
       </c>
       <c r="AE2" t="n">
-        <v>5570873.335910936</v>
+        <v>5773446.58118198</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.547979116739401e-07</v>
+        <v>1.283394857616881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.736328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5039197.00350122</v>
+        <v>5222436.942556922</v>
       </c>
     </row>
     <row r="3">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2454.172108325924</v>
+        <v>2556.644472979817</v>
       </c>
       <c r="AB3" t="n">
-        <v>3357.906549043797</v>
+        <v>3498.113759124929</v>
       </c>
       <c r="AC3" t="n">
-        <v>3037.432660854371</v>
+        <v>3164.258691587411</v>
       </c>
       <c r="AD3" t="n">
-        <v>2454172.108325924</v>
+        <v>2556644.472979817</v>
       </c>
       <c r="AE3" t="n">
-        <v>3357906.549043797</v>
+        <v>3498113.75912493</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.842757208411293e-07</v>
+        <v>1.733168192216353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.31705729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3037432.660854371</v>
+        <v>3164258.691587411</v>
       </c>
     </row>
     <row r="4">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2089.497943639205</v>
+        <v>2191.970218784549</v>
       </c>
       <c r="AB4" t="n">
-        <v>2858.943268630544</v>
+        <v>2999.150356242296</v>
       </c>
       <c r="AC4" t="n">
-        <v>2586.089735624524</v>
+        <v>2712.91565557638</v>
       </c>
       <c r="AD4" t="n">
-        <v>2089497.943639205</v>
+        <v>2191970.218784549</v>
       </c>
       <c r="AE4" t="n">
-        <v>2858943.268630544</v>
+        <v>2999150.356242296</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.679664569684519e-07</v>
+        <v>1.897200878425441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.7333984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2586089.735624524</v>
+        <v>2712915.65557638</v>
       </c>
     </row>
     <row r="5">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1928.690289798622</v>
+        <v>2019.767363785857</v>
       </c>
       <c r="AB5" t="n">
-        <v>2638.919142312863</v>
+        <v>2763.534812979124</v>
       </c>
       <c r="AC5" t="n">
-        <v>2387.064403116801</v>
+        <v>2499.786929073866</v>
       </c>
       <c r="AD5" t="n">
-        <v>1928690.289798622</v>
+        <v>2019767.363785857</v>
       </c>
       <c r="AE5" t="n">
-        <v>2638919.142312863</v>
+        <v>2763534.812979124</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.010956228677136e-06</v>
+        <v>1.981460236858646e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.02213541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2387064.403116801</v>
+        <v>2499786.929073866</v>
       </c>
     </row>
     <row r="6">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1813.709789087838</v>
+        <v>1904.872114421094</v>
       </c>
       <c r="AB6" t="n">
-        <v>2481.597748658683</v>
+        <v>2606.330063977593</v>
       </c>
       <c r="AC6" t="n">
-        <v>2244.757542471013</v>
+        <v>2357.58558067879</v>
       </c>
       <c r="AD6" t="n">
-        <v>1813709.789087838</v>
+        <v>1904872.114421094</v>
       </c>
       <c r="AE6" t="n">
-        <v>2481597.748658683</v>
+        <v>2606330.063977593</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.03762580927419e-06</v>
+        <v>2.033732246257024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.6103515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2244757.542471013</v>
+        <v>2357585.58067879</v>
       </c>
     </row>
     <row r="7">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1736.622487182704</v>
+        <v>1827.614220315368</v>
       </c>
       <c r="AB7" t="n">
-        <v>2376.123501340339</v>
+        <v>2500.622404884402</v>
       </c>
       <c r="AC7" t="n">
-        <v>2149.349609282696</v>
+        <v>2261.966512207822</v>
       </c>
       <c r="AD7" t="n">
-        <v>1736622.487182704</v>
+        <v>1827614.220315368</v>
       </c>
       <c r="AE7" t="n">
-        <v>2376123.501340339</v>
+        <v>2500622.404884402</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.055637727513245e-06</v>
+        <v>2.069035357082048e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.34342447916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2149349.609282696</v>
+        <v>2261966.512207822</v>
       </c>
     </row>
     <row r="8">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1667.536501158686</v>
+        <v>1747.303625333836</v>
       </c>
       <c r="AB8" t="n">
-        <v>2281.597007403681</v>
+        <v>2390.737905777276</v>
       </c>
       <c r="AC8" t="n">
-        <v>2063.844591258585</v>
+        <v>2162.569235471617</v>
       </c>
       <c r="AD8" t="n">
-        <v>1667536.501158686</v>
+        <v>1747303.625333836</v>
       </c>
       <c r="AE8" t="n">
-        <v>2281597.007403681</v>
+        <v>2390737.905777276</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.069470084613956e-06</v>
+        <v>2.096146585837176e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.14485677083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2063844.591258585</v>
+        <v>2162569.235471617</v>
       </c>
     </row>
     <row r="9">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1615.001196281013</v>
+        <v>1694.768320456163</v>
       </c>
       <c r="AB9" t="n">
-        <v>2209.715885575972</v>
+        <v>2318.856783949567</v>
       </c>
       <c r="AC9" t="n">
-        <v>1998.823702812324</v>
+        <v>2097.548347025356</v>
       </c>
       <c r="AD9" t="n">
-        <v>1615001.196281013</v>
+        <v>1694768.320456163</v>
       </c>
       <c r="AE9" t="n">
-        <v>2209715.885575972</v>
+        <v>2318856.783949567</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079321907297196e-06</v>
+        <v>2.115456022144786e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.00651041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1998823.702812324</v>
+        <v>2097548.347025356</v>
       </c>
     </row>
     <row r="10">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1557.512465405882</v>
+        <v>1648.589449884567</v>
       </c>
       <c r="AB10" t="n">
-        <v>2131.05726776881</v>
+        <v>2255.672815965523</v>
       </c>
       <c r="AC10" t="n">
-        <v>1927.672153090615</v>
+        <v>2040.394568266453</v>
       </c>
       <c r="AD10" t="n">
-        <v>1557512.465405882</v>
+        <v>1648589.449884567</v>
       </c>
       <c r="AE10" t="n">
-        <v>2131057.26776881</v>
+        <v>2255672.815965523</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.085790275725587e-06</v>
+        <v>2.128133934872004e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.9169921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1927672.153090615</v>
+        <v>2040394.568266453</v>
       </c>
     </row>
     <row r="11">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1547.89201066888</v>
+        <v>1638.968995147565</v>
       </c>
       <c r="AB11" t="n">
-        <v>2117.894137173135</v>
+        <v>2242.509685369847</v>
       </c>
       <c r="AC11" t="n">
-        <v>1915.765293204421</v>
+        <v>2028.487708380259</v>
       </c>
       <c r="AD11" t="n">
-        <v>1547892.01066888</v>
+        <v>1638968.995147564</v>
       </c>
       <c r="AE11" t="n">
-        <v>2117894.137173135</v>
+        <v>2242509.685369847</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.087382489492575e-06</v>
+        <v>2.131254651851012e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1915765.293204421</v>
+        <v>2028487.708380259</v>
       </c>
     </row>
     <row r="12">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1556.344147907293</v>
+        <v>1647.421132385977</v>
       </c>
       <c r="AB12" t="n">
-        <v>2129.45872422471</v>
+        <v>2254.074272421422</v>
       </c>
       <c r="AC12" t="n">
-        <v>1926.226172298794</v>
+        <v>2038.948587474632</v>
       </c>
       <c r="AD12" t="n">
-        <v>1556344.147907293</v>
+        <v>1647421.132385978</v>
       </c>
       <c r="AE12" t="n">
-        <v>2129458.72422471</v>
+        <v>2254074.272421422</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.087482002853012e-06</v>
+        <v>2.1314496966622e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.892578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1926226.172298794</v>
+        <v>2038948.587474632</v>
       </c>
     </row>
   </sheetData>
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4934.334452465267</v>
+        <v>5097.291393334759</v>
       </c>
       <c r="AB2" t="n">
-        <v>6751.374085335797</v>
+        <v>6974.338960986295</v>
       </c>
       <c r="AC2" t="n">
-        <v>6107.032418244135</v>
+        <v>6308.717839095708</v>
       </c>
       <c r="AD2" t="n">
-        <v>4934334.452465267</v>
+        <v>5097291.393334759</v>
       </c>
       <c r="AE2" t="n">
-        <v>6751374.085335797</v>
+        <v>6974338.960986295</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.91844832226921e-07</v>
+        <v>1.137941882537402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.81315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6107032.418244136</v>
+        <v>6308717.839095708</v>
       </c>
     </row>
     <row r="3">
@@ -16115,28 +16115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2768.698879397549</v>
+        <v>2885.072311203023</v>
       </c>
       <c r="AB3" t="n">
-        <v>3788.255953165844</v>
+        <v>3947.483216595572</v>
       </c>
       <c r="AC3" t="n">
-        <v>3426.710121846176</v>
+        <v>3570.740958731033</v>
       </c>
       <c r="AD3" t="n">
-        <v>2768698.879397549</v>
+        <v>2885072.311203023</v>
       </c>
       <c r="AE3" t="n">
-        <v>3788255.953165844</v>
+        <v>3947483.216595572</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.356030003599196e-07</v>
+        <v>1.606616463483613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.99251302083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3426710.121846176</v>
+        <v>3570740.958731033</v>
       </c>
     </row>
     <row r="4">
@@ -16221,28 +16221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2344.060200066742</v>
+        <v>2448.702503260191</v>
       </c>
       <c r="AB4" t="n">
-        <v>3207.246578369029</v>
+        <v>3350.422794090916</v>
       </c>
       <c r="AC4" t="n">
-        <v>2901.151466328213</v>
+        <v>3030.663144970678</v>
       </c>
       <c r="AD4" t="n">
-        <v>2344060.200066742</v>
+        <v>2448702.503260191</v>
       </c>
       <c r="AE4" t="n">
-        <v>3207246.578369029</v>
+        <v>3350422.794090916</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.24233470293078e-07</v>
+        <v>1.777026541115656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.16959635416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2901151.466328213</v>
+        <v>3030663.144970678</v>
       </c>
     </row>
     <row r="5">
@@ -16327,28 +16327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2140.726852186274</v>
+        <v>2233.808618968293</v>
       </c>
       <c r="AB5" t="n">
-        <v>2929.036921364582</v>
+        <v>3056.395501153645</v>
       </c>
       <c r="AC5" t="n">
-        <v>2649.493748518684</v>
+        <v>2764.697404201453</v>
       </c>
       <c r="AD5" t="n">
-        <v>2140726.852186274</v>
+        <v>2233808.618968293</v>
       </c>
       <c r="AE5" t="n">
-        <v>2929036.921364582</v>
+        <v>3056395.501153645</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.717175614453862e-07</v>
+        <v>1.868324349483978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.33138020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2649493.748518684</v>
+        <v>2764697.404201453</v>
       </c>
     </row>
     <row r="6">
@@ -16433,28 +16433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2013.563169936371</v>
+        <v>2118.205383621269</v>
       </c>
       <c r="AB6" t="n">
-        <v>2755.045961244542</v>
+        <v>2898.222054496871</v>
       </c>
       <c r="AC6" t="n">
-        <v>2492.108241434654</v>
+        <v>2621.61980929589</v>
       </c>
       <c r="AD6" t="n">
-        <v>2013563.169936371</v>
+        <v>2118205.383621268</v>
       </c>
       <c r="AE6" t="n">
-        <v>2755045.961244542</v>
+        <v>2898222.054496871</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.000578528552333e-06</v>
+        <v>1.923815419868009e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2492108.241434654</v>
+        <v>2621619.80929589</v>
       </c>
     </row>
     <row r="7">
@@ -16539,28 +16539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1927.909352359253</v>
+        <v>2021.076370487289</v>
       </c>
       <c r="AB7" t="n">
-        <v>2637.850629255791</v>
+        <v>2765.325853697324</v>
       </c>
       <c r="AC7" t="n">
-        <v>2386.097867446228</v>
+        <v>2501.407035379663</v>
       </c>
       <c r="AD7" t="n">
-        <v>1927909.352359253</v>
+        <v>2021076.370487289</v>
       </c>
       <c r="AE7" t="n">
-        <v>2637850.629255791</v>
+        <v>2765325.853697324</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.020761704873745e-06</v>
+        <v>1.962621675170355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2386097.867446228</v>
+        <v>2501407.035379663</v>
       </c>
     </row>
     <row r="8">
@@ -16645,28 +16645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1865.223587094879</v>
+        <v>1958.220013022323</v>
       </c>
       <c r="AB8" t="n">
-        <v>2552.08119972029</v>
+        <v>2679.323012386976</v>
       </c>
       <c r="AC8" t="n">
-        <v>2308.514151887445</v>
+        <v>2423.612184538229</v>
       </c>
       <c r="AD8" t="n">
-        <v>1865223.587094879</v>
+        <v>1958220.013022323</v>
       </c>
       <c r="AE8" t="n">
-        <v>2552081.19972029</v>
+        <v>2679323.012386976</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.034509665556447e-06</v>
+        <v>1.989054921535722e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.34016927083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2308514.151887445</v>
+        <v>2423612.184538229</v>
       </c>
     </row>
     <row r="9">
@@ -16751,28 +16751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1808.059472826143</v>
+        <v>1889.580703196726</v>
       </c>
       <c r="AB9" t="n">
-        <v>2473.866736675071</v>
+        <v>2585.407680530961</v>
       </c>
       <c r="AC9" t="n">
-        <v>2237.764367420573</v>
+        <v>2338.660000143555</v>
       </c>
       <c r="AD9" t="n">
-        <v>1808059.472826143</v>
+        <v>1889580.703196726</v>
       </c>
       <c r="AE9" t="n">
-        <v>2473866.736675071</v>
+        <v>2585407.680530961</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.046015051092324e-06</v>
+        <v>2.011176361756383e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.17252604166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2237764.367420573</v>
+        <v>2338660.000143555</v>
       </c>
     </row>
     <row r="10">
@@ -16857,28 +16857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1757.605768265572</v>
+        <v>1839.126998636155</v>
       </c>
       <c r="AB10" t="n">
-        <v>2404.833752234946</v>
+        <v>2516.374696090836</v>
       </c>
       <c r="AC10" t="n">
-        <v>2175.319794127012</v>
+        <v>2276.215426849993</v>
       </c>
       <c r="AD10" t="n">
-        <v>1757605.768265572</v>
+        <v>1839126.998636155</v>
       </c>
       <c r="AE10" t="n">
-        <v>2404833.752234946</v>
+        <v>2516374.696090836</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.05410782227434e-06</v>
+        <v>2.026736357843797e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.05533854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2175319.794127012</v>
+        <v>2276215.426849993</v>
       </c>
     </row>
     <row r="11">
@@ -16963,28 +16963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1699.643948422525</v>
+        <v>1792.72562569599</v>
       </c>
       <c r="AB11" t="n">
-        <v>2325.527833230668</v>
+        <v>2452.886290550004</v>
       </c>
       <c r="AC11" t="n">
-        <v>2103.582720725946</v>
+        <v>2218.786265627442</v>
       </c>
       <c r="AD11" t="n">
-        <v>1699643.948422525</v>
+        <v>1792725.62569599</v>
       </c>
       <c r="AE11" t="n">
-        <v>2325527.833230668</v>
+        <v>2452886.290550004</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.060933050982064e-06</v>
+        <v>2.039859246110291e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.95768229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2103582.720725946</v>
+        <v>2218786.265627442</v>
       </c>
     </row>
     <row r="12">
@@ -17069,28 +17069,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1655.12180822149</v>
+        <v>1748.203485494955</v>
       </c>
       <c r="AB12" t="n">
-        <v>2264.610676829412</v>
+        <v>2391.969134148748</v>
       </c>
       <c r="AC12" t="n">
-        <v>2048.479412233859</v>
+        <v>2163.682957135356</v>
       </c>
       <c r="AD12" t="n">
-        <v>1655121.80822149</v>
+        <v>1748203.485494955</v>
       </c>
       <c r="AE12" t="n">
-        <v>2264610.676829412</v>
+        <v>2391969.134148748</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.06629573068099e-06</v>
+        <v>2.050170086891108e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.88444010416667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2048479.41223386</v>
+        <v>2163682.957135356</v>
       </c>
     </row>
     <row r="13">
@@ -17175,28 +17175,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1641.611196998039</v>
+        <v>1734.692874271504</v>
       </c>
       <c r="AB13" t="n">
-        <v>2246.124862507386</v>
+        <v>2373.483319826722</v>
       </c>
       <c r="AC13" t="n">
-        <v>2031.757858085724</v>
+        <v>2146.96140298722</v>
       </c>
       <c r="AD13" t="n">
-        <v>1641611.196998039</v>
+        <v>1734692.874271504</v>
       </c>
       <c r="AE13" t="n">
-        <v>2246124.862507386</v>
+        <v>2373483.319826722</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.068538305827814e-06</v>
+        <v>2.054481893035813e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.85188802083333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2031757.858085724</v>
+        <v>2146961.40298722</v>
       </c>
     </row>
     <row r="14">
@@ -17281,28 +17281,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1650.116303031568</v>
+        <v>1743.197980305034</v>
       </c>
       <c r="AB14" t="n">
-        <v>2257.761923801257</v>
+        <v>2385.120381120593</v>
       </c>
       <c r="AC14" t="n">
-        <v>2042.284294582427</v>
+        <v>2157.487839483922</v>
       </c>
       <c r="AD14" t="n">
-        <v>1650116.303031568</v>
+        <v>1743197.980305034</v>
       </c>
       <c r="AE14" t="n">
-        <v>2257761.923801257</v>
+        <v>2385120.381120593</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.068343299293307e-06</v>
+        <v>2.054106953371056e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.85514322916667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2042284.294582427</v>
+        <v>2157487.839483922</v>
       </c>
     </row>
     <row r="15">
@@ -17387,28 +17387,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1658.460275279894</v>
+        <v>1751.541952553359</v>
       </c>
       <c r="AB15" t="n">
-        <v>2269.178514741493</v>
+        <v>2396.536972060828</v>
       </c>
       <c r="AC15" t="n">
-        <v>2052.611302106612</v>
+        <v>2167.814847008108</v>
       </c>
       <c r="AD15" t="n">
-        <v>1658460.275279894</v>
+        <v>1751541.952553359</v>
       </c>
       <c r="AE15" t="n">
-        <v>2269178.514741492</v>
+        <v>2396536.972060828</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.068343299293307e-06</v>
+        <v>2.054106953371056e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.85514322916667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2052611.302106612</v>
+        <v>2167814.847008108</v>
       </c>
     </row>
   </sheetData>
@@ -17684,28 +17684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7160.292777395967</v>
+        <v>7365.700638156106</v>
       </c>
       <c r="AB2" t="n">
-        <v>9797.028467856679</v>
+        <v>10078.07656490397</v>
       </c>
       <c r="AC2" t="n">
-        <v>8862.013821099881</v>
+        <v>9116.239082218452</v>
       </c>
       <c r="AD2" t="n">
-        <v>7160292.777395967</v>
+        <v>7365700.638156106</v>
       </c>
       <c r="AE2" t="n">
-        <v>9797028.467856679</v>
+        <v>10078076.56490397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.832671998043634e-07</v>
+        <v>9.002901391464733e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.6943359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>8862013.821099881</v>
+        <v>9116239.082218451</v>
       </c>
     </row>
     <row r="3">
@@ -17790,28 +17790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3488.939435995354</v>
+        <v>3621.875504973847</v>
       </c>
       <c r="AB3" t="n">
-        <v>4773.720857473822</v>
+        <v>4955.609851775658</v>
       </c>
       <c r="AC3" t="n">
-        <v>4318.123638795644</v>
+        <v>4482.653402764114</v>
       </c>
       <c r="AD3" t="n">
-        <v>3488939.435995353</v>
+        <v>3621875.504973847</v>
       </c>
       <c r="AE3" t="n">
-        <v>4773720.857473821</v>
+        <v>4955609.851775658</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.470642710899779e-07</v>
+        <v>1.391724074886992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.5029296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4318123.638795644</v>
+        <v>4482653.402764114</v>
       </c>
     </row>
     <row r="4">
@@ -17896,28 +17896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2851.382998591551</v>
+        <v>2960.133446199857</v>
       </c>
       <c r="AB4" t="n">
-        <v>3901.388012812977</v>
+        <v>4050.185172961811</v>
       </c>
       <c r="AC4" t="n">
-        <v>3529.045016502425</v>
+        <v>3663.641184524774</v>
       </c>
       <c r="AD4" t="n">
-        <v>2851382.998591551</v>
+        <v>2960133.446199857</v>
       </c>
       <c r="AE4" t="n">
-        <v>3901388.012812977</v>
+        <v>4050185.172961811</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.476704320619086e-07</v>
+        <v>1.579145722160133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.0712890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3529045.016502425</v>
+        <v>3663641.184524775</v>
       </c>
     </row>
     <row r="5">
@@ -18002,28 +18002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2563.402743048139</v>
+        <v>2672.153101147894</v>
       </c>
       <c r="AB5" t="n">
-        <v>3507.360722386242</v>
+        <v>3656.157760065528</v>
       </c>
       <c r="AC5" t="n">
-        <v>3172.623137653258</v>
+        <v>3307.219194894381</v>
       </c>
       <c r="AD5" t="n">
-        <v>2563402.743048139</v>
+        <v>2672153.101147894</v>
       </c>
       <c r="AE5" t="n">
-        <v>3507360.722386242</v>
+        <v>3656157.760065528</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.016909525463692e-07</v>
+        <v>1.679781854559369e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.98893229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3172623.137653258</v>
+        <v>3307219.194894381</v>
       </c>
     </row>
     <row r="6">
@@ -18108,28 +18108,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2413.495842088708</v>
+        <v>2510.153434257644</v>
       </c>
       <c r="AB6" t="n">
-        <v>3302.251487067818</v>
+        <v>3434.502668905376</v>
       </c>
       <c r="AC6" t="n">
-        <v>2987.089239881012</v>
+        <v>3106.718554539687</v>
       </c>
       <c r="AD6" t="n">
-        <v>2413495.842088708</v>
+        <v>2510153.434257644</v>
       </c>
       <c r="AE6" t="n">
-        <v>3302251.487067818</v>
+        <v>3434502.668905376</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.351949687353377e-07</v>
+        <v>1.742197295559592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.37858072916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2987089.239881012</v>
+        <v>3106718.554539687</v>
       </c>
     </row>
     <row r="7">
@@ -18214,28 +18214,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2301.782235832952</v>
+        <v>2410.447253078135</v>
       </c>
       <c r="AB7" t="n">
-        <v>3149.400002532211</v>
+        <v>3298.080273089298</v>
       </c>
       <c r="AC7" t="n">
-        <v>2848.825686501083</v>
+        <v>2983.316120710267</v>
       </c>
       <c r="AD7" t="n">
-        <v>2301782.235832952</v>
+        <v>2410447.253078135</v>
       </c>
       <c r="AE7" t="n">
-        <v>3149400.002532211</v>
+        <v>3298080.273089298</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.579701707514342e-07</v>
+        <v>1.784625769497946e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2848825.686501083</v>
+        <v>2983316.120710267</v>
       </c>
     </row>
     <row r="8">
@@ -18320,28 +18320,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2225.407952822081</v>
+        <v>2322.150796337037</v>
       </c>
       <c r="AB8" t="n">
-        <v>3044.901339121163</v>
+        <v>3177.26916561137</v>
       </c>
       <c r="AC8" t="n">
-        <v>2754.300228861195</v>
+        <v>2874.035055770582</v>
       </c>
       <c r="AD8" t="n">
-        <v>2225407.952822081</v>
+        <v>2322150.796337037</v>
       </c>
       <c r="AE8" t="n">
-        <v>3044901.339121163</v>
+        <v>3177269.16561137</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.74439841630843e-07</v>
+        <v>1.81530751718064e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.71940104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2754300.228861195</v>
+        <v>2874035.055770582</v>
       </c>
     </row>
     <row r="9">
@@ -18426,28 +18426,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2165.703361922023</v>
+        <v>2262.446205436982</v>
       </c>
       <c r="AB9" t="n">
-        <v>2963.210883870876</v>
+        <v>3095.578710361256</v>
       </c>
       <c r="AC9" t="n">
-        <v>2680.406196006835</v>
+        <v>2800.141022916268</v>
       </c>
       <c r="AD9" t="n">
-        <v>2165703.361922023</v>
+        <v>2262446.205436982</v>
       </c>
       <c r="AE9" t="n">
-        <v>2963210.883870876</v>
+        <v>3095578.710361256</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.87145016309244e-07</v>
+        <v>1.838976293964432e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.51595052083333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2680406.196006835</v>
+        <v>2800141.022916269</v>
       </c>
     </row>
     <row r="10">
@@ -18532,28 +18532,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2116.356481613958</v>
+        <v>2212.928732928324</v>
       </c>
       <c r="AB10" t="n">
-        <v>2895.692305202669</v>
+        <v>3027.826719918199</v>
       </c>
       <c r="AC10" t="n">
-        <v>2619.331495723802</v>
+        <v>2738.855187350582</v>
       </c>
       <c r="AD10" t="n">
-        <v>2116356.481613958</v>
+        <v>2212928.732928324</v>
       </c>
       <c r="AE10" t="n">
-        <v>2895692.305202669</v>
+        <v>3027826.719918199</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.965562568117632e-07</v>
+        <v>1.856508721211686e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.36946614583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2619331.495723802</v>
+        <v>2738855.187350582</v>
       </c>
     </row>
     <row r="11">
@@ -18638,28 +18638,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2070.644425491598</v>
+        <v>2167.216676805962</v>
       </c>
       <c r="AB11" t="n">
-        <v>2833.14705334247</v>
+        <v>2965.281468057823</v>
       </c>
       <c r="AC11" t="n">
-        <v>2562.755474918328</v>
+        <v>2682.279166545062</v>
       </c>
       <c r="AD11" t="n">
-        <v>2070644.425491598</v>
+        <v>2167216.676805962</v>
       </c>
       <c r="AE11" t="n">
-        <v>2833147.05334247</v>
+        <v>2965281.468057822</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.005308710479106e-06</v>
+        <v>1.872813878551632e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.23763020833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2562755.474918328</v>
+        <v>2682279.166545062</v>
       </c>
     </row>
     <row r="12">
@@ -18744,28 +18744,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2031.662680639938</v>
+        <v>2116.312758224076</v>
       </c>
       <c r="AB12" t="n">
-        <v>2779.81051028322</v>
+        <v>2895.632480931692</v>
       </c>
       <c r="AC12" t="n">
-        <v>2514.509296670344</v>
+        <v>2619.277380997282</v>
       </c>
       <c r="AD12" t="n">
-        <v>2031662.680639938</v>
+        <v>2116312.758224076</v>
       </c>
       <c r="AE12" t="n">
-        <v>2779810.51028322</v>
+        <v>2895632.480931692</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.011614241615794e-06</v>
+        <v>1.884560604807292e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.1416015625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2514509.296670344</v>
+        <v>2619277.380997282</v>
       </c>
     </row>
     <row r="13">
@@ -18850,28 +18850,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1993.165495686797</v>
+        <v>2077.815573270934</v>
       </c>
       <c r="AB13" t="n">
-        <v>2727.136963454398</v>
+        <v>2842.95893410287</v>
       </c>
       <c r="AC13" t="n">
-        <v>2466.862839223077</v>
+        <v>2571.630923550016</v>
       </c>
       <c r="AD13" t="n">
-        <v>1993165.495686797</v>
+        <v>2077815.573270934</v>
       </c>
       <c r="AE13" t="n">
-        <v>2727136.963454397</v>
+        <v>2842958.93410287</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.017543323132381e-06</v>
+        <v>1.895606033973061e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.0537109375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2466862.839223077</v>
+        <v>2571630.923550016</v>
       </c>
     </row>
     <row r="14">
@@ -18956,28 +18956,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1942.437392349294</v>
+        <v>2039.094895009679</v>
       </c>
       <c r="AB14" t="n">
-        <v>2657.728534502055</v>
+        <v>2789.979593870056</v>
       </c>
       <c r="AC14" t="n">
-        <v>2404.078653314603</v>
+        <v>2523.707857192051</v>
       </c>
       <c r="AD14" t="n">
-        <v>1942437.392349294</v>
+        <v>2039094.895009679</v>
       </c>
       <c r="AE14" t="n">
-        <v>2657728.534502055</v>
+        <v>2789979.593870056</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.022813617813792e-06</v>
+        <v>1.905424193231524e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.9755859375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2404078.653314603</v>
+        <v>2523707.857192051</v>
       </c>
     </row>
     <row r="15">
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1909.750955288124</v>
+        <v>2006.408457948509</v>
       </c>
       <c r="AB15" t="n">
-        <v>2613.005509291131</v>
+        <v>2745.256568659133</v>
       </c>
       <c r="AC15" t="n">
-        <v>2363.623930860651</v>
+        <v>2483.253134738098</v>
       </c>
       <c r="AD15" t="n">
-        <v>1909750.955288124</v>
+        <v>2006408.457948509</v>
       </c>
       <c r="AE15" t="n">
-        <v>2613005.509291131</v>
+        <v>2745256.568659133</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.026860451229875e-06</v>
+        <v>1.912963136947842e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.9169921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>2363623.930860651</v>
+        <v>2483253.134738098</v>
       </c>
     </row>
     <row r="16">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1877.310707413067</v>
+        <v>1973.968210073451</v>
       </c>
       <c r="AB16" t="n">
-        <v>2568.619330985749</v>
+        <v>2700.87039035375</v>
       </c>
       <c r="AC16" t="n">
-        <v>2323.473907116341</v>
+        <v>2443.103110993788</v>
       </c>
       <c r="AD16" t="n">
-        <v>1877310.707413067</v>
+        <v>1973968.210073452</v>
       </c>
       <c r="AE16" t="n">
-        <v>2568619.330985749</v>
+        <v>2700870.39035375</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.030154385405757e-06</v>
+        <v>1.919099486484381e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2323473.907116341</v>
+        <v>2443103.110993788</v>
       </c>
     </row>
     <row r="17">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1850.937643989832</v>
+        <v>1947.595146650217</v>
       </c>
       <c r="AB17" t="n">
-        <v>2532.534542112636</v>
+        <v>2664.785601480638</v>
       </c>
       <c r="AC17" t="n">
-        <v>2290.83299984796</v>
+        <v>2410.462203725407</v>
       </c>
       <c r="AD17" t="n">
-        <v>1850937.643989832</v>
+        <v>1947595.146650217</v>
       </c>
       <c r="AE17" t="n">
-        <v>2532534.542112636</v>
+        <v>2664785.601480638</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.032413083126362e-06</v>
+        <v>1.923307269023722e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.83723958333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2290832.99984796</v>
+        <v>2410462.203725406</v>
       </c>
     </row>
     <row r="18">
@@ -19380,28 +19380,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1839.110022386931</v>
+        <v>1935.767525047316</v>
       </c>
       <c r="AB18" t="n">
-        <v>2516.351468437709</v>
+        <v>2648.60252780571</v>
       </c>
       <c r="AC18" t="n">
-        <v>2276.194416011481</v>
+        <v>2395.823619888928</v>
       </c>
       <c r="AD18" t="n">
-        <v>1839110.022386931</v>
+        <v>1935767.525047316</v>
       </c>
       <c r="AE18" t="n">
-        <v>2516351.468437709</v>
+        <v>2648602.52780571</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.03401299401179e-06</v>
+        <v>1.926287781655755e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.814453125</v>
       </c>
       <c r="AH18" t="n">
-        <v>2276194.416011481</v>
+        <v>2395823.619888928</v>
       </c>
     </row>
     <row r="19">
@@ -19486,28 +19486,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1839.83442676475</v>
+        <v>1936.491929425134</v>
       </c>
       <c r="AB19" t="n">
-        <v>2517.342630465906</v>
+        <v>2649.593689833907</v>
       </c>
       <c r="AC19" t="n">
-        <v>2277.090982926811</v>
+        <v>2396.720186804259</v>
       </c>
       <c r="AD19" t="n">
-        <v>1839834.42676475</v>
+        <v>1936491.929425135</v>
       </c>
       <c r="AE19" t="n">
-        <v>2517342.630465906</v>
+        <v>2649593.689833907</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.034483556036916e-06</v>
+        <v>1.927164403018118e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.80794270833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2277090.982926811</v>
+        <v>2396720.186804259</v>
       </c>
     </row>
     <row r="20">
@@ -19592,28 +19592,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1851.220146673091</v>
+        <v>1947.877649333475</v>
       </c>
       <c r="AB20" t="n">
-        <v>2532.921074747009</v>
+        <v>2665.172134115011</v>
       </c>
       <c r="AC20" t="n">
-        <v>2291.18264235021</v>
+        <v>2410.811846227657</v>
       </c>
       <c r="AD20" t="n">
-        <v>1851220.146673091</v>
+        <v>1947877.649333475</v>
       </c>
       <c r="AE20" t="n">
-        <v>2532921.074747009</v>
+        <v>2665172.134115011</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.034389443631891e-06</v>
+        <v>1.926989078745645e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.8095703125</v>
       </c>
       <c r="AH20" t="n">
-        <v>2291182.64235021</v>
+        <v>2410811.846227657</v>
       </c>
     </row>
   </sheetData>
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3335.433860864316</v>
+        <v>3468.794321879053</v>
       </c>
       <c r="AB2" t="n">
-        <v>4563.687757391507</v>
+        <v>4746.157423600187</v>
       </c>
       <c r="AC2" t="n">
-        <v>4128.135803001885</v>
+        <v>4293.190820365387</v>
       </c>
       <c r="AD2" t="n">
-        <v>3335433.860864316</v>
+        <v>3468794.321879053</v>
       </c>
       <c r="AE2" t="n">
-        <v>4563687.757391507</v>
+        <v>4746157.423600187</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.241098882796299e-07</v>
+        <v>1.451476355760056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.88411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4128135.803001885</v>
+        <v>4293190.820365387</v>
       </c>
     </row>
     <row r="3">
@@ -19995,28 +19995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2133.345052427414</v>
+        <v>2233.429403829397</v>
       </c>
       <c r="AB3" t="n">
-        <v>2918.936817272487</v>
+        <v>3055.876642270817</v>
       </c>
       <c r="AC3" t="n">
-        <v>2640.357584185555</v>
+        <v>2764.228064482179</v>
       </c>
       <c r="AD3" t="n">
-        <v>2133345.052427413</v>
+        <v>2233429.403829398</v>
       </c>
       <c r="AE3" t="n">
-        <v>2918936.817272487</v>
+        <v>3055876.642270817</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.38940015426708e-07</v>
+        <v>1.882102777393031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.64973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2640357.584185555</v>
+        <v>2764228.064482179</v>
       </c>
     </row>
     <row r="4">
@@ -20101,28 +20101,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1849.670997653718</v>
+        <v>1938.549614220569</v>
       </c>
       <c r="AB4" t="n">
-        <v>2530.801460715072</v>
+        <v>2652.409104949667</v>
       </c>
       <c r="AC4" t="n">
-        <v>2289.265321306583</v>
+        <v>2399.26690265283</v>
       </c>
       <c r="AD4" t="n">
-        <v>1849670.997653718</v>
+        <v>1938549.614220569</v>
       </c>
       <c r="AE4" t="n">
-        <v>2530801.460715072</v>
+        <v>2652409.104949668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.01479235889807e-06</v>
+        <v>2.034148599249224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.32975260416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2289265.321306583</v>
+        <v>2399266.90265283</v>
       </c>
     </row>
     <row r="5">
@@ -20207,28 +20207,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1700.564455455893</v>
+        <v>1789.528323368765</v>
       </c>
       <c r="AB5" t="n">
-        <v>2326.787311563626</v>
+        <v>2448.511600450871</v>
       </c>
       <c r="AC5" t="n">
-        <v>2104.721996214495</v>
+        <v>2214.829089811454</v>
       </c>
       <c r="AD5" t="n">
-        <v>1700564.455455893</v>
+        <v>1789528.323368765</v>
       </c>
       <c r="AE5" t="n">
-        <v>2326787.311563626</v>
+        <v>2448511.600450871</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.054500297091132e-06</v>
+        <v>2.113743056328305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.71451822916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2104721.996214496</v>
+        <v>2214829.089811454</v>
       </c>
     </row>
     <row r="6">
@@ -20313,28 +20313,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1604.644083844585</v>
+        <v>1693.437359556865</v>
       </c>
       <c r="AB6" t="n">
-        <v>2195.544827416899</v>
+        <v>2317.035704529297</v>
       </c>
       <c r="AC6" t="n">
-        <v>1986.005110554748</v>
+        <v>2095.901068869056</v>
       </c>
       <c r="AD6" t="n">
-        <v>1604644.083844585</v>
+        <v>1693437.359556865</v>
       </c>
       <c r="AE6" t="n">
-        <v>2195544.827416899</v>
+        <v>2317035.704529297</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.078935951363785e-06</v>
+        <v>2.162724260684662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.35970052083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1986005.110554748</v>
+        <v>2095901.068869056</v>
       </c>
     </row>
     <row r="7">
@@ -20419,28 +20419,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1528.580725244542</v>
+        <v>1606.424199176856</v>
       </c>
       <c r="AB7" t="n">
-        <v>2091.471584501769</v>
+        <v>2197.980459747657</v>
       </c>
       <c r="AC7" t="n">
-        <v>1891.864471875725</v>
+        <v>1988.208289554291</v>
       </c>
       <c r="AD7" t="n">
-        <v>1528580.725244542</v>
+        <v>1606424.199176856</v>
       </c>
       <c r="AE7" t="n">
-        <v>2091471.584501769</v>
+        <v>2197980.459747657</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.095633648450098e-06</v>
+        <v>2.196194750328173e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.12532552083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1891864.471875725</v>
+        <v>1988208.289554291</v>
       </c>
     </row>
     <row r="8">
@@ -20525,28 +20525,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1457.018001623054</v>
+        <v>1545.896528681354</v>
       </c>
       <c r="AB8" t="n">
-        <v>1993.556308918302</v>
+        <v>2115.16383068335</v>
       </c>
       <c r="AC8" t="n">
-        <v>1803.294092768992</v>
+        <v>1913.295563334012</v>
       </c>
       <c r="AD8" t="n">
-        <v>1457018.001623054</v>
+        <v>1545896.528681354</v>
       </c>
       <c r="AE8" t="n">
-        <v>1993556.308918302</v>
+        <v>2115163.83068335</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106324247194384e-06</v>
+        <v>2.217624027234079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.97884114583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1803294.092768992</v>
+        <v>1913295.563334012</v>
       </c>
     </row>
     <row r="9">
@@ -20631,28 +20631,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1447.719858877651</v>
+        <v>1536.598385935952</v>
       </c>
       <c r="AB9" t="n">
-        <v>1980.834179808936</v>
+        <v>2102.441701573983</v>
       </c>
       <c r="AC9" t="n">
-        <v>1791.786145806203</v>
+        <v>1901.787616371223</v>
       </c>
       <c r="AD9" t="n">
-        <v>1447719.858877651</v>
+        <v>1536598.385935952</v>
       </c>
       <c r="AE9" t="n">
-        <v>1980834.179808936</v>
+        <v>2102441.701573983</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.108869627847785e-06</v>
+        <v>2.222726236021199e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.94303385416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1791786.145806202</v>
+        <v>1901787.616371223</v>
       </c>
     </row>
     <row r="10">
@@ -20737,28 +20737,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1454.738411308997</v>
+        <v>1543.616938367298</v>
       </c>
       <c r="AB10" t="n">
-        <v>1990.437272882184</v>
+        <v>2112.044794647231</v>
       </c>
       <c r="AC10" t="n">
-        <v>1800.472733154565</v>
+        <v>1910.474203719585</v>
       </c>
       <c r="AD10" t="n">
-        <v>1454738.411308997</v>
+        <v>1543616.938367298</v>
       </c>
       <c r="AE10" t="n">
-        <v>1990437.272882184</v>
+        <v>2112044.794647231</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.109378703978465e-06</v>
+        <v>2.223746677778623e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.93815104166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1800472.733154565</v>
+        <v>1910474.203719585</v>
       </c>
     </row>
   </sheetData>
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2393.876404316365</v>
+        <v>2500.243643039065</v>
       </c>
       <c r="AB2" t="n">
-        <v>3275.407306759191</v>
+        <v>3420.943655370983</v>
       </c>
       <c r="AC2" t="n">
-        <v>2962.807030464997</v>
+        <v>3094.453594226822</v>
       </c>
       <c r="AD2" t="n">
-        <v>2393876.404316365</v>
+        <v>2500243.643039065</v>
       </c>
       <c r="AE2" t="n">
-        <v>3275407.306759191</v>
+        <v>3420943.655370983</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.477193174260269e-07</v>
+        <v>1.773481826655507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.36295572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2962807.030464998</v>
+        <v>3094453.594226822</v>
       </c>
     </row>
     <row r="3">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1668.841007705629</v>
+        <v>1764.562907912905</v>
       </c>
       <c r="AB3" t="n">
-        <v>2283.381890811975</v>
+        <v>2414.352817627767</v>
       </c>
       <c r="AC3" t="n">
-        <v>2065.459127899491</v>
+        <v>2183.930373278834</v>
       </c>
       <c r="AD3" t="n">
-        <v>1668841.007705629</v>
+        <v>1764562.907912905</v>
       </c>
       <c r="AE3" t="n">
-        <v>2283381.890811975</v>
+        <v>2414352.817627767</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.033320318989338e-06</v>
+        <v>2.161770729025973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.70572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2065459.127899491</v>
+        <v>2183930.373278834</v>
       </c>
     </row>
     <row r="4">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1460.461525121121</v>
+        <v>1545.623517176098</v>
       </c>
       <c r="AB4" t="n">
-        <v>1998.267889685894</v>
+        <v>2114.79028429744</v>
       </c>
       <c r="AC4" t="n">
-        <v>1807.556006880869</v>
+        <v>1912.957667690898</v>
       </c>
       <c r="AD4" t="n">
-        <v>1460461.525121121</v>
+        <v>1545623.517176098</v>
       </c>
       <c r="AE4" t="n">
-        <v>1998267.889685894</v>
+        <v>2114790.28429744</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.098121582963729e-06</v>
+        <v>2.297339025796462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.71940104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1807556.006880869</v>
+        <v>1912957.667690898</v>
       </c>
     </row>
     <row r="5">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1340.297180923299</v>
+        <v>1425.288580777683</v>
       </c>
       <c r="AB5" t="n">
-        <v>1833.853732677713</v>
+        <v>1950.142715514413</v>
       </c>
       <c r="AC5" t="n">
-        <v>1658.833306260831</v>
+        <v>1764.023831788208</v>
       </c>
       <c r="AD5" t="n">
-        <v>1340297.180923299</v>
+        <v>1425288.580777683</v>
       </c>
       <c r="AE5" t="n">
-        <v>1833853.732677713</v>
+        <v>1950142.715514413</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.131635820960304e-06</v>
+        <v>2.367452907595928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.25390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1658833.306260831</v>
+        <v>1764023.831788208</v>
       </c>
     </row>
     <row r="6">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1296.079499718159</v>
+        <v>1370.596332274814</v>
       </c>
       <c r="AB6" t="n">
-        <v>1773.353150506422</v>
+        <v>1875.310368261073</v>
       </c>
       <c r="AC6" t="n">
-        <v>1604.106814738867</v>
+        <v>1696.333378728869</v>
       </c>
       <c r="AD6" t="n">
-        <v>1296079.499718159</v>
+        <v>1370596.332274814</v>
       </c>
       <c r="AE6" t="n">
-        <v>1773353.150506422</v>
+        <v>1875310.368261073</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.142771881054102e-06</v>
+        <v>2.390750241738156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.10579427083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1604106.814738867</v>
+        <v>1696333.378728869</v>
       </c>
     </row>
     <row r="7">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1307.95515886163</v>
+        <v>1382.471991418285</v>
       </c>
       <c r="AB7" t="n">
-        <v>1789.601951263624</v>
+        <v>1891.559169018275</v>
       </c>
       <c r="AC7" t="n">
-        <v>1618.804852757137</v>
+        <v>1711.031416747138</v>
       </c>
       <c r="AD7" t="n">
-        <v>1307955.15886163</v>
+        <v>1382471.991418285</v>
       </c>
       <c r="AE7" t="n">
-        <v>1789601.951263624</v>
+        <v>1891559.169018275</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.142241592478207e-06</v>
+        <v>2.389640844874241e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.1123046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1618804.852757137</v>
+        <v>1711031.416747138</v>
       </c>
     </row>
   </sheetData>
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1827.886089233141</v>
+        <v>1930.454600407509</v>
       </c>
       <c r="AB2" t="n">
-        <v>2500.994387931709</v>
+        <v>2641.333149923834</v>
       </c>
       <c r="AC2" t="n">
-        <v>2262.302993715175</v>
+        <v>2389.248021229461</v>
       </c>
       <c r="AD2" t="n">
-        <v>1827886.089233141</v>
+        <v>1930454.600407509</v>
       </c>
       <c r="AE2" t="n">
-        <v>2500994.387931709</v>
+        <v>2641333.149923834</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.494461193265072e-07</v>
+        <v>2.063958924666098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2262302.993715175</v>
+        <v>2389248.021229461</v>
       </c>
     </row>
     <row r="3">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1346.524449501097</v>
+        <v>1428.562279778228</v>
       </c>
       <c r="AB3" t="n">
-        <v>1842.374156273555</v>
+        <v>1954.621934912364</v>
       </c>
       <c r="AC3" t="n">
-        <v>1666.540552587175</v>
+        <v>1768.075560773443</v>
       </c>
       <c r="AD3" t="n">
-        <v>1346524.449501097</v>
+        <v>1428562.279778228</v>
       </c>
       <c r="AE3" t="n">
-        <v>1842374.156273555</v>
+        <v>1954621.934912364</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.111600194247304e-06</v>
+        <v>2.416458496038468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.064453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1666540.552587176</v>
+        <v>1768075.560773443</v>
       </c>
     </row>
     <row r="4">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1186.309352578766</v>
+        <v>1268.261842001326</v>
       </c>
       <c r="AB4" t="n">
-        <v>1623.160792473195</v>
+        <v>1735.291803989806</v>
       </c>
       <c r="AC4" t="n">
-        <v>1468.248604560032</v>
+        <v>1569.677989714362</v>
       </c>
       <c r="AD4" t="n">
-        <v>1186309.352578766</v>
+        <v>1268261.842001326</v>
       </c>
       <c r="AE4" t="n">
-        <v>1623160.792473195</v>
+        <v>1735291.803989806</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.162725903931399e-06</v>
+        <v>2.527598415023262e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.35807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1468248.604560032</v>
+        <v>1569677.989714361</v>
       </c>
     </row>
     <row r="5">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1185.089157212391</v>
+        <v>1267.041646634951</v>
       </c>
       <c r="AB5" t="n">
-        <v>1621.491267341701</v>
+        <v>1733.622278858312</v>
       </c>
       <c r="AC5" t="n">
-        <v>1466.738416563895</v>
+        <v>1568.167801718225</v>
       </c>
       <c r="AD5" t="n">
-        <v>1185089.157212391</v>
+        <v>1267041.646634951</v>
       </c>
       <c r="AE5" t="n">
-        <v>1621491.267341701</v>
+        <v>1733622.278858312</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.166017258632091e-06</v>
+        <v>2.534753345430008e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.31412760416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1466738.416563895</v>
+        <v>1568167.801718225</v>
       </c>
     </row>
   </sheetData>
@@ -40753,28 +40753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.3158463052155</v>
+        <v>1061.329613687519</v>
       </c>
       <c r="AB2" t="n">
-        <v>1348.152609982042</v>
+        <v>1452.15800000525</v>
       </c>
       <c r="AC2" t="n">
-        <v>1219.486817029428</v>
+        <v>1313.566078601302</v>
       </c>
       <c r="AD2" t="n">
-        <v>985315.8463052155</v>
+        <v>1061329.613687519</v>
       </c>
       <c r="AE2" t="n">
-        <v>1348152.609982042</v>
+        <v>1452158.00000525</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165531608467101e-06</v>
+        <v>2.77224835757741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.44368489583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1219486.817029428</v>
+        <v>1313566.078601302</v>
       </c>
     </row>
     <row r="3">
@@ -40859,28 +40859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>965.5604720128676</v>
+        <v>1041.574239395172</v>
       </c>
       <c r="AB3" t="n">
-        <v>1321.122435329649</v>
+        <v>1425.127825352857</v>
       </c>
       <c r="AC3" t="n">
-        <v>1195.03636430877</v>
+        <v>1289.115625880645</v>
       </c>
       <c r="AD3" t="n">
-        <v>965560.4720128677</v>
+        <v>1041574.239395172</v>
       </c>
       <c r="AE3" t="n">
-        <v>1321122.435329649</v>
+        <v>1425127.825352857</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.182017204060695e-06</v>
+        <v>2.81145979120651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.2158203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1195036.36430877</v>
+        <v>1289115.625880645</v>
       </c>
     </row>
   </sheetData>
@@ -41156,28 +41156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4481.372431093547</v>
+        <v>4631.174763008543</v>
       </c>
       <c r="AB2" t="n">
-        <v>6131.611464420938</v>
+        <v>6336.577623759505</v>
       </c>
       <c r="AC2" t="n">
-        <v>5546.419072027113</v>
+        <v>5731.823548790211</v>
       </c>
       <c r="AD2" t="n">
-        <v>4481372.431093547</v>
+        <v>4631174.763008543</v>
       </c>
       <c r="AE2" t="n">
-        <v>6131611.464420938</v>
+        <v>6336577.623759504</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.228646867952638e-07</v>
+        <v>1.208717629623149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.732421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5546419.072027112</v>
+        <v>5731823.548790211</v>
       </c>
     </row>
     <row r="3">
@@ -41262,28 +41262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2611.449706600572</v>
+        <v>2726.596928757537</v>
       </c>
       <c r="AB3" t="n">
-        <v>3573.100697601117</v>
+        <v>3730.650206893202</v>
       </c>
       <c r="AC3" t="n">
-        <v>3232.088981900257</v>
+        <v>3374.602187147625</v>
       </c>
       <c r="AD3" t="n">
-        <v>2611449.706600572</v>
+        <v>2726596.928757537</v>
       </c>
       <c r="AE3" t="n">
-        <v>3573100.697601117</v>
+        <v>3730650.206893202</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.591101229410088e-07</v>
+        <v>1.667170371673099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.6572265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3232088.981900257</v>
+        <v>3374602.187147625</v>
       </c>
     </row>
     <row r="4">
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2210.121737938564</v>
+        <v>2313.745703794375</v>
       </c>
       <c r="AB4" t="n">
-        <v>3023.986065537329</v>
+        <v>3165.768947187986</v>
       </c>
       <c r="AC4" t="n">
-        <v>2735.381079633431</v>
+        <v>2863.632402052869</v>
       </c>
       <c r="AD4" t="n">
-        <v>2210121.737938564</v>
+        <v>2313745.703794375</v>
       </c>
       <c r="AE4" t="n">
-        <v>3023986.065537329</v>
+        <v>3165768.947187986</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.457695576255673e-07</v>
+        <v>1.835339781011972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.9482421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2735381.079633431</v>
+        <v>2863632.402052869</v>
       </c>
     </row>
     <row r="5">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2034.829441232907</v>
+        <v>2126.930240296115</v>
       </c>
       <c r="AB5" t="n">
-        <v>2784.143411834138</v>
+        <v>2910.159788312907</v>
       </c>
       <c r="AC5" t="n">
-        <v>2518.428672178508</v>
+        <v>2632.418222551239</v>
       </c>
       <c r="AD5" t="n">
-        <v>2034829.441232907</v>
+        <v>2126930.240296115</v>
       </c>
       <c r="AE5" t="n">
-        <v>2784143.411834138</v>
+        <v>2910159.788312907</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.911672842046371e-07</v>
+        <v>1.923437619313359e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2518428.672178508</v>
+        <v>2632418.222551239</v>
       </c>
     </row>
     <row r="6">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1912.980601666703</v>
+        <v>2005.166652075932</v>
       </c>
       <c r="AB6" t="n">
-        <v>2617.424453948247</v>
+        <v>2743.557475079665</v>
       </c>
       <c r="AC6" t="n">
-        <v>2367.621137641719</v>
+        <v>2481.716200265162</v>
       </c>
       <c r="AD6" t="n">
-        <v>1912980.601666704</v>
+        <v>2005166.652075932</v>
       </c>
       <c r="AE6" t="n">
-        <v>2617424.453948247</v>
+        <v>2743557.475079665</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.019134647216472e-06</v>
+        <v>1.97771047414545e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.7275390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2367621.137641719</v>
+        <v>2481716.200265162</v>
       </c>
     </row>
     <row r="7">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1832.479541868085</v>
+        <v>1924.495000076721</v>
       </c>
       <c r="AB7" t="n">
-        <v>2507.279352475668</v>
+        <v>2633.178961832239</v>
       </c>
       <c r="AC7" t="n">
-        <v>2267.988130064062</v>
+        <v>2381.872057404853</v>
       </c>
       <c r="AD7" t="n">
-        <v>1832479.541868085</v>
+        <v>1924495.000076721</v>
       </c>
       <c r="AE7" t="n">
-        <v>2507279.352475667</v>
+        <v>2633178.961832239</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.037746730347587e-06</v>
+        <v>2.013828676833003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.4443359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2267988.130064062</v>
+        <v>2381872.057404853</v>
       </c>
     </row>
     <row r="8">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1769.195415185606</v>
+        <v>1861.210873394243</v>
       </c>
       <c r="AB8" t="n">
-        <v>2420.691218450073</v>
+        <v>2546.590827806645</v>
       </c>
       <c r="AC8" t="n">
-        <v>2189.663846022661</v>
+        <v>2303.547773363453</v>
       </c>
       <c r="AD8" t="n">
-        <v>1769195.415185606</v>
+        <v>1861210.873394242</v>
       </c>
       <c r="AE8" t="n">
-        <v>2420691.218450074</v>
+        <v>2546590.827806645</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.051434981962535e-06</v>
+        <v>2.040391799444484e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.244140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2189663.846022661</v>
+        <v>2303547.773363453</v>
       </c>
     </row>
     <row r="9">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1714.648044733188</v>
+        <v>1795.310928349814</v>
       </c>
       <c r="AB9" t="n">
-        <v>2346.05709973693</v>
+        <v>2456.42361569647</v>
       </c>
       <c r="AC9" t="n">
-        <v>2122.152702849857</v>
+        <v>2221.985993426596</v>
       </c>
       <c r="AD9" t="n">
-        <v>1714648.044733188</v>
+        <v>1795310.928349814</v>
       </c>
       <c r="AE9" t="n">
-        <v>2346057.09973693</v>
+        <v>2456423.61569647</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.061873504776811e-06</v>
+        <v>2.060648569205758e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.09440104166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2122152.702849857</v>
+        <v>2221985.993426596</v>
       </c>
     </row>
     <row r="10">
@@ -42004,28 +42004,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1639.079412110581</v>
+        <v>1731.180121665237</v>
       </c>
       <c r="AB10" t="n">
-        <v>2242.660762729899</v>
+        <v>2368.67701673912</v>
       </c>
       <c r="AC10" t="n">
-        <v>2028.624367129105</v>
+        <v>2142.61380672061</v>
       </c>
       <c r="AD10" t="n">
-        <v>1639079.412110581</v>
+        <v>1731180.121665237</v>
       </c>
       <c r="AE10" t="n">
-        <v>2242660.762729899</v>
+        <v>2368677.01673912</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.070539448245267e-06</v>
+        <v>2.077465510139645e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.970703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2028624.367129105</v>
+        <v>2142613.80672061</v>
       </c>
     </row>
     <row r="11">
@@ -42110,28 +42110,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1602.773863185044</v>
+        <v>1694.874572739701</v>
       </c>
       <c r="AB11" t="n">
-        <v>2192.985909002203</v>
+        <v>2319.002163011424</v>
       </c>
       <c r="AC11" t="n">
-        <v>1983.690411722086</v>
+        <v>2097.679851313591</v>
       </c>
       <c r="AD11" t="n">
-        <v>1602773.863185044</v>
+        <v>1694874.572739701</v>
       </c>
       <c r="AE11" t="n">
-        <v>2192985.909002203</v>
+        <v>2319002.163011424</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.076546522694992e-06</v>
+        <v>2.089122707832453e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.88932291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1983690.411722086</v>
+        <v>2097679.851313591</v>
       </c>
     </row>
     <row r="12">
@@ -42216,28 +42216,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1595.38559131448</v>
+        <v>1687.486300869137</v>
       </c>
       <c r="AB12" t="n">
-        <v>2182.876949481345</v>
+        <v>2308.893203490567</v>
       </c>
       <c r="AC12" t="n">
-        <v>1974.546237109886</v>
+        <v>2088.53567670139</v>
       </c>
       <c r="AD12" t="n">
-        <v>1595385.59131448</v>
+        <v>1687486.300869137</v>
       </c>
       <c r="AE12" t="n">
-        <v>2182876.949481346</v>
+        <v>2308893.203490567</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.077728242258872e-06</v>
+        <v>2.091415927050711e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.873046875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1974546.237109886</v>
+        <v>2088535.67670139</v>
       </c>
     </row>
     <row r="13">
@@ -42322,28 +42322,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1599.443296111177</v>
+        <v>1691.544005665834</v>
       </c>
       <c r="AB13" t="n">
-        <v>2188.428880197489</v>
+        <v>2314.44513420671</v>
       </c>
       <c r="AC13" t="n">
-        <v>1979.568299350664</v>
+        <v>2093.557738942169</v>
       </c>
       <c r="AD13" t="n">
-        <v>1599443.296111177</v>
+        <v>1691544.005665835</v>
       </c>
       <c r="AE13" t="n">
-        <v>2188428.880197489</v>
+        <v>2314445.13420671</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.078417578671136e-06</v>
+        <v>2.092753638261361e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.86165364583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1979568.299350664</v>
+        <v>2093557.738942169</v>
       </c>
     </row>
   </sheetData>
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6531.302097029987</v>
+        <v>6722.835455240813</v>
       </c>
       <c r="AB2" t="n">
-        <v>8936.415669869506</v>
+        <v>9198.480060428981</v>
       </c>
       <c r="AC2" t="n">
-        <v>8083.536700674989</v>
+        <v>8320.59003360914</v>
       </c>
       <c r="AD2" t="n">
-        <v>6531302.097029987</v>
+        <v>6722835.455240813</v>
       </c>
       <c r="AE2" t="n">
-        <v>8936415.669869507</v>
+        <v>9198480.060428981</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.086383506390769e-07</v>
+        <v>9.544050486347953e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8083536.700674989</v>
+        <v>8320590.033609141</v>
       </c>
     </row>
     <row r="3">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3310.99162131587</v>
+        <v>3430.774677011094</v>
       </c>
       <c r="AB3" t="n">
-        <v>4530.244806925816</v>
+        <v>4694.137268183491</v>
       </c>
       <c r="AC3" t="n">
-        <v>4097.884600791165</v>
+        <v>4246.135395570916</v>
       </c>
       <c r="AD3" t="n">
-        <v>3310991.62131587</v>
+        <v>3430774.677011094</v>
       </c>
       <c r="AE3" t="n">
-        <v>4530244.806925816</v>
+        <v>4694137.268183491</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.675124962628459e-07</v>
+        <v>1.44015448383549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.12532552083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4097884.600791165</v>
+        <v>4246135.395570915</v>
       </c>
     </row>
     <row r="4">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2712.558611871006</v>
+        <v>2832.256237203107</v>
       </c>
       <c r="AB4" t="n">
-        <v>3711.442362402218</v>
+        <v>3875.217934068146</v>
       </c>
       <c r="AC4" t="n">
-        <v>3357.227512376482</v>
+        <v>3505.372573343067</v>
       </c>
       <c r="AD4" t="n">
-        <v>2712558.611871006</v>
+        <v>2832256.237203107</v>
       </c>
       <c r="AE4" t="n">
-        <v>3711442.362402218</v>
+        <v>3875217.934068147</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.659188338771599e-07</v>
+        <v>1.624803371043378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.8369140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3357227.512376482</v>
+        <v>3505372.573343066</v>
       </c>
     </row>
     <row r="5">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2454.526311977788</v>
+        <v>2562.322447460338</v>
       </c>
       <c r="AB5" t="n">
-        <v>3358.39118610664</v>
+        <v>3505.882614303734</v>
       </c>
       <c r="AC5" t="n">
-        <v>3037.871044836129</v>
+        <v>3171.286098131606</v>
       </c>
       <c r="AD5" t="n">
-        <v>2454526.311977788</v>
+        <v>2562322.447460338</v>
       </c>
       <c r="AE5" t="n">
-        <v>3358391.18610664</v>
+        <v>3505882.614303735</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.18680573234497e-07</v>
+        <v>1.723805088774898e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.8115234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3037871.04483613</v>
+        <v>3171286.098131606</v>
       </c>
     </row>
     <row r="6">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2319.021560980831</v>
+        <v>2414.830955267807</v>
       </c>
       <c r="AB6" t="n">
-        <v>3172.987607744888</v>
+        <v>3304.078247820497</v>
       </c>
       <c r="AC6" t="n">
-        <v>2870.162123777672</v>
+        <v>2988.74165715133</v>
       </c>
       <c r="AD6" t="n">
-        <v>2319021.560980831</v>
+        <v>2414830.955267807</v>
       </c>
       <c r="AE6" t="n">
-        <v>3172987.607744888</v>
+        <v>3304078.247820497</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.500908892907536e-07</v>
+        <v>1.782743161740965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.25651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2870162.123777672</v>
+        <v>2988741.65715133</v>
       </c>
     </row>
     <row r="7">
@@ -43149,28 +43149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2209.775429080028</v>
+        <v>2317.486223708005</v>
       </c>
       <c r="AB7" t="n">
-        <v>3023.512230479011</v>
+        <v>3170.886891553907</v>
       </c>
       <c r="AC7" t="n">
-        <v>2734.952466728048</v>
+        <v>2868.261896991586</v>
       </c>
       <c r="AD7" t="n">
-        <v>2209775.429080028</v>
+        <v>2317486.223708005</v>
       </c>
       <c r="AE7" t="n">
-        <v>3023512.230479011</v>
+        <v>3170886.891553907</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.723912647385486e-07</v>
+        <v>1.824587412940438e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.8837890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2734952.466728047</v>
+        <v>2868261.896991586</v>
       </c>
     </row>
     <row r="8">
@@ -43255,28 +43255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2136.261762703685</v>
+        <v>2232.156408336684</v>
       </c>
       <c r="AB8" t="n">
-        <v>2922.927588948658</v>
+        <v>3054.134873677089</v>
       </c>
       <c r="AC8" t="n">
-        <v>2643.967482214035</v>
+        <v>2762.652527838449</v>
       </c>
       <c r="AD8" t="n">
-        <v>2136261.762703685</v>
+        <v>2232156.408336684</v>
       </c>
       <c r="AE8" t="n">
-        <v>2922927.588948659</v>
+        <v>3054134.873677089</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.889030320913844e-07</v>
+        <v>1.855569964892389e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.61848958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2643967.482214035</v>
+        <v>2762652.527838449</v>
       </c>
     </row>
     <row r="9">
@@ -43361,28 +43361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2077.285198699081</v>
+        <v>2173.009252131485</v>
       </c>
       <c r="AB9" t="n">
-        <v>2842.233252215185</v>
+        <v>2973.20712516859</v>
       </c>
       <c r="AC9" t="n">
-        <v>2570.974499723191</v>
+        <v>2689.448410064908</v>
       </c>
       <c r="AD9" t="n">
-        <v>2077285.198699081</v>
+        <v>2173009.252131484</v>
       </c>
       <c r="AE9" t="n">
-        <v>2842233.252215185</v>
+        <v>2973207.12516859</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.001239409998676e-06</v>
+        <v>1.87871784853465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.42643229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2570974.499723191</v>
+        <v>2689448.410064908</v>
       </c>
     </row>
     <row r="10">
@@ -43467,28 +43467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2030.031181185428</v>
+        <v>2125.755234617831</v>
       </c>
       <c r="AB10" t="n">
-        <v>2777.578220752883</v>
+        <v>2908.552093706287</v>
       </c>
       <c r="AC10" t="n">
-        <v>2512.490053719744</v>
+        <v>2630.963964061461</v>
       </c>
       <c r="AD10" t="n">
-        <v>2030031.181185428</v>
+        <v>2125755.234617831</v>
       </c>
       <c r="AE10" t="n">
-        <v>2777578.220752883</v>
+        <v>2908552.093706287</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.010254455392465e-06</v>
+        <v>1.895633609657842e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.2880859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2512490.053719744</v>
+        <v>2630963.964061461</v>
       </c>
     </row>
     <row r="11">
@@ -43573,28 +43573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1986.03828902393</v>
+        <v>2069.946193461352</v>
       </c>
       <c r="AB11" t="n">
-        <v>2717.385204868096</v>
+        <v>2832.191701474865</v>
       </c>
       <c r="AC11" t="n">
-        <v>2458.041774789574</v>
+        <v>2561.891300492122</v>
       </c>
       <c r="AD11" t="n">
-        <v>1986038.28902393</v>
+        <v>2069946.193461352</v>
       </c>
       <c r="AE11" t="n">
-        <v>2717385.204868096</v>
+        <v>2832191.701474865</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.018035862995526e-06</v>
+        <v>1.910234582416807e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.17252604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2458041.774789574</v>
+        <v>2561891.300492122</v>
       </c>
     </row>
     <row r="12">
@@ -43679,28 +43679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1939.460658687437</v>
+        <v>2023.368563124859</v>
       </c>
       <c r="AB12" t="n">
-        <v>2653.655636181682</v>
+        <v>2768.462132788449</v>
       </c>
       <c r="AC12" t="n">
-        <v>2400.394466693578</v>
+        <v>2504.243992396126</v>
       </c>
       <c r="AD12" t="n">
-        <v>1939460.658687437</v>
+        <v>2023368.563124859</v>
       </c>
       <c r="AE12" t="n">
-        <v>2653655.636181681</v>
+        <v>2768462.132788449</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.024298947163843e-06</v>
+        <v>1.92198658488134e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.07975260416667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2400394.466693578</v>
+        <v>2504243.992396126</v>
       </c>
     </row>
     <row r="13">
@@ -43785,28 +43785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1893.653276697558</v>
+        <v>1989.462581475982</v>
       </c>
       <c r="AB13" t="n">
-        <v>2590.979955264062</v>
+        <v>2722.070472870115</v>
       </c>
       <c r="AC13" t="n">
-        <v>2343.700464796866</v>
+        <v>2462.279887389294</v>
       </c>
       <c r="AD13" t="n">
-        <v>1893653.276697558</v>
+        <v>1989462.581475982</v>
       </c>
       <c r="AE13" t="n">
-        <v>2590979.955264062</v>
+        <v>2722070.472870115</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.030467136117488e-06</v>
+        <v>1.933560526702471e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.98860677083333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2343700.464796866</v>
+        <v>2462279.887389294</v>
       </c>
     </row>
     <row r="14">
@@ -43891,28 +43891,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1856.82968491256</v>
+        <v>1952.638989690985</v>
       </c>
       <c r="AB14" t="n">
-        <v>2540.596292441613</v>
+        <v>2671.686810047667</v>
       </c>
       <c r="AC14" t="n">
-        <v>2298.125348040276</v>
+        <v>2416.704770632705</v>
       </c>
       <c r="AD14" t="n">
-        <v>1856829.684912561</v>
+        <v>1952638.989690985</v>
       </c>
       <c r="AE14" t="n">
-        <v>2540596.292441613</v>
+        <v>2671686.810047667</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.035022106421719e-06</v>
+        <v>1.942107437585768e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.92350260416667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2298125.348040276</v>
+        <v>2416704.770632705</v>
       </c>
     </row>
     <row r="15">
@@ -43997,28 +43997,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1820.02960106773</v>
+        <v>1915.838905846154</v>
       </c>
       <c r="AB15" t="n">
-        <v>2490.244794219998</v>
+        <v>2621.335311826052</v>
       </c>
       <c r="AC15" t="n">
-        <v>2252.579326140161</v>
+        <v>2371.15874873259</v>
       </c>
       <c r="AD15" t="n">
-        <v>1820029.60106773</v>
+        <v>1915838.905846154</v>
       </c>
       <c r="AE15" t="n">
-        <v>2490244.794219998</v>
+        <v>2621335.311826052</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.038628124579234e-06</v>
+        <v>1.948873742035044e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2252579.326140161</v>
+        <v>2371158.74873259</v>
       </c>
     </row>
     <row r="16">
@@ -44103,28 +44103,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1794.419805183035</v>
+        <v>1890.229109961459</v>
       </c>
       <c r="AB16" t="n">
-        <v>2455.204341666103</v>
+        <v>2586.294859272157</v>
       </c>
       <c r="AC16" t="n">
-        <v>2220.883085198426</v>
+        <v>2339.462507790854</v>
       </c>
       <c r="AD16" t="n">
-        <v>1794419.805183035</v>
+        <v>1890229.109961459</v>
       </c>
       <c r="AE16" t="n">
-        <v>2455204.341666103</v>
+        <v>2586294.859272157</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.041190295375364e-06</v>
+        <v>1.953681379406898e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.833984375</v>
       </c>
       <c r="AH16" t="n">
-        <v>2220883.085198426</v>
+        <v>2339462.507790855</v>
       </c>
     </row>
     <row r="17">
@@ -44209,28 +44209,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1788.513855578016</v>
+        <v>1884.32316035644</v>
       </c>
       <c r="AB17" t="n">
-        <v>2447.123560864408</v>
+        <v>2578.214078470462</v>
       </c>
       <c r="AC17" t="n">
-        <v>2213.573522774997</v>
+        <v>2332.152945367426</v>
       </c>
       <c r="AD17" t="n">
-        <v>1788513.855578016</v>
+        <v>1884323.16035644</v>
       </c>
       <c r="AE17" t="n">
-        <v>2447123.560864409</v>
+        <v>2578214.078470462</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.042423933166093e-06</v>
+        <v>1.955996167771125e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.81608072916667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2213573.522774997</v>
+        <v>2332152.945367426</v>
       </c>
     </row>
     <row r="18">
@@ -44315,28 +44315,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1791.358670946276</v>
+        <v>1887.167975724701</v>
       </c>
       <c r="AB18" t="n">
-        <v>2451.015962755658</v>
+        <v>2582.106480361712</v>
       </c>
       <c r="AC18" t="n">
-        <v>2217.094439292767</v>
+        <v>2335.673861885195</v>
       </c>
       <c r="AD18" t="n">
-        <v>1791358.670946276</v>
+        <v>1887167.975724701</v>
       </c>
       <c r="AE18" t="n">
-        <v>2451015.962755658</v>
+        <v>2582106.480361712</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.042803514024779e-06</v>
+        <v>1.956708410344733e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.81119791666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2217094.439292767</v>
+        <v>2335673.861885196</v>
       </c>
     </row>
     <row r="19">
@@ -44421,28 +44421,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1799.382647269376</v>
+        <v>1895.1919520478</v>
       </c>
       <c r="AB19" t="n">
-        <v>2461.994721153775</v>
+        <v>2593.085238759829</v>
       </c>
       <c r="AC19" t="n">
-        <v>2227.025400398151</v>
+        <v>2345.60482299058</v>
       </c>
       <c r="AD19" t="n">
-        <v>1799382.647269376</v>
+        <v>1895191.9520478</v>
       </c>
       <c r="AE19" t="n">
-        <v>2461994.721153775</v>
+        <v>2593085.238759829</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.042898409239451e-06</v>
+        <v>1.956886470988134e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.8095703125</v>
       </c>
       <c r="AH19" t="n">
-        <v>2227025.400398151</v>
+        <v>2345604.82299058</v>
       </c>
     </row>
   </sheetData>
@@ -44718,28 +44718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>855.09614032216</v>
+        <v>937.3672847906684</v>
       </c>
       <c r="AB2" t="n">
-        <v>1169.980263368052</v>
+        <v>1282.547272776599</v>
       </c>
       <c r="AC2" t="n">
-        <v>1058.318989109817</v>
+        <v>1160.142761129202</v>
       </c>
       <c r="AD2" t="n">
-        <v>855096.14032216</v>
+        <v>937367.2847906684</v>
       </c>
       <c r="AE2" t="n">
-        <v>1169980.263368052</v>
+        <v>1282547.272776599</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15179604267065e-06</v>
+        <v>2.880554493457043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22981770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1058318.989109817</v>
+        <v>1160142.761129202</v>
       </c>
     </row>
   </sheetData>
@@ -45015,28 +45015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2692.530468447927</v>
+        <v>2811.313292965106</v>
       </c>
       <c r="AB2" t="n">
-        <v>3684.038972991432</v>
+        <v>3846.562873824222</v>
       </c>
       <c r="AC2" t="n">
-        <v>3332.439463990164</v>
+        <v>3479.452311831193</v>
       </c>
       <c r="AD2" t="n">
-        <v>2692530.468447926</v>
+        <v>2811313.292965106</v>
       </c>
       <c r="AE2" t="n">
-        <v>3684038.972991432</v>
+        <v>3846562.873824222</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.036960233223646e-07</v>
+        <v>1.655037926183901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.16536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3332439.463990164</v>
+        <v>3479452.311831193</v>
       </c>
     </row>
     <row r="3">
@@ -45121,28 +45121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1832.630857535866</v>
+        <v>1919.142522839161</v>
       </c>
       <c r="AB3" t="n">
-        <v>2507.486389247901</v>
+        <v>2625.855466341179</v>
       </c>
       <c r="AC3" t="n">
-        <v>2268.175407537332</v>
+        <v>2375.24750604487</v>
       </c>
       <c r="AD3" t="n">
-        <v>1832630.857535866</v>
+        <v>1919142.522839161</v>
       </c>
       <c r="AE3" t="n">
-        <v>2507486.389247901</v>
+        <v>2625855.466341179</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.992376695689373e-07</v>
+        <v>2.057713603672858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.02311197916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2268175.407537332</v>
+        <v>2375247.50604487</v>
       </c>
     </row>
     <row r="4">
@@ -45227,28 +45227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1591.158382330762</v>
+        <v>1688.313223390705</v>
       </c>
       <c r="AB4" t="n">
-        <v>2177.093095658525</v>
+        <v>2310.024635365824</v>
       </c>
       <c r="AC4" t="n">
-        <v>1969.314386178225</v>
+        <v>2089.559126306447</v>
       </c>
       <c r="AD4" t="n">
-        <v>1591158.382330762</v>
+        <v>1688313.223390705</v>
       </c>
       <c r="AE4" t="n">
-        <v>2177093.095658525</v>
+        <v>2310024.635365824</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.06821548171364e-06</v>
+        <v>2.199758471199695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1969314.386178225</v>
+        <v>2089559.126306447</v>
       </c>
     </row>
     <row r="5">
@@ -45333,28 +45333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1466.72008015405</v>
+        <v>1553.061063748202</v>
       </c>
       <c r="AB5" t="n">
-        <v>2006.831120789908</v>
+        <v>2124.96666363879</v>
       </c>
       <c r="AC5" t="n">
-        <v>1815.301975226887</v>
+        <v>1922.162827670547</v>
       </c>
       <c r="AD5" t="n">
-        <v>1466720.08015405</v>
+        <v>1553061.063748202</v>
       </c>
       <c r="AE5" t="n">
-        <v>2006831.120789908</v>
+        <v>2124966.66363879</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.1044810890079e-06</v>
+        <v>2.27443963639941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.40201822916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1815301.975226887</v>
+        <v>1922162.827670547</v>
       </c>
     </row>
     <row r="6">
@@ -45439,28 +45439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1375.858405945857</v>
+        <v>1451.556124274808</v>
       </c>
       <c r="AB6" t="n">
-        <v>1882.5101696041</v>
+        <v>1986.08312736941</v>
       </c>
       <c r="AC6" t="n">
-        <v>1702.846041136701</v>
+        <v>1796.53414117845</v>
       </c>
       <c r="AD6" t="n">
-        <v>1375858.405945857</v>
+        <v>1451556.124274808</v>
       </c>
       <c r="AE6" t="n">
-        <v>1882510.1696041</v>
+        <v>1986083.12736941</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.125592479997642e-06</v>
+        <v>2.317913974642472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.1123046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1702846.041136701</v>
+        <v>1796534.14117845</v>
       </c>
     </row>
     <row r="7">
@@ -45545,28 +45545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1354.54108309545</v>
+        <v>1430.238801424402</v>
       </c>
       <c r="AB7" t="n">
-        <v>1853.342868026264</v>
+        <v>1956.915825791575</v>
       </c>
       <c r="AC7" t="n">
-        <v>1676.462425884889</v>
+        <v>1770.150525926638</v>
       </c>
       <c r="AD7" t="n">
-        <v>1354541.08309545</v>
+        <v>1430238.801424402</v>
       </c>
       <c r="AE7" t="n">
-        <v>1853342.868026264</v>
+        <v>1956915.825791575</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.130295512643872e-06</v>
+        <v>2.327598851973848e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05045572916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1676462.425884889</v>
+        <v>1770150.525926638</v>
       </c>
     </row>
     <row r="8">
@@ -45651,28 +45651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1361.435833031016</v>
+        <v>1437.133551359968</v>
       </c>
       <c r="AB8" t="n">
-        <v>1862.776569063005</v>
+        <v>1966.349526828315</v>
       </c>
       <c r="AC8" t="n">
-        <v>1684.995787734966</v>
+        <v>1778.683887776714</v>
       </c>
       <c r="AD8" t="n">
-        <v>1361435.833031016</v>
+        <v>1437133.551359968</v>
       </c>
       <c r="AE8" t="n">
-        <v>1862776.569063005</v>
+        <v>1966349.526828315</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.131131607336535e-06</v>
+        <v>2.32932060794387e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1684995.787734966</v>
+        <v>1778683.887776714</v>
       </c>
     </row>
   </sheetData>
@@ -45948,28 +45948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3689.994060209946</v>
+        <v>3836.220373774859</v>
       </c>
       <c r="AB2" t="n">
-        <v>5048.81266422826</v>
+        <v>5248.885957497446</v>
       </c>
       <c r="AC2" t="n">
-        <v>4566.961069607202</v>
+        <v>4747.939648571402</v>
       </c>
       <c r="AD2" t="n">
-        <v>3689994.060209946</v>
+        <v>3836220.373774859</v>
       </c>
       <c r="AE2" t="n">
-        <v>5048812.66422826</v>
+        <v>5248885.957497446</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.88559747690765e-07</v>
+        <v>1.364163632138136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.78580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4566961.069607202</v>
+        <v>4747939.648571403</v>
       </c>
     </row>
     <row r="3">
@@ -46054,28 +46054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2288.113593145224</v>
+        <v>2400.555984723816</v>
       </c>
       <c r="AB3" t="n">
-        <v>3130.697962588903</v>
+        <v>3284.546603354957</v>
       </c>
       <c r="AC3" t="n">
-        <v>2831.908543001488</v>
+        <v>2971.074085420746</v>
       </c>
       <c r="AD3" t="n">
-        <v>2288113.593145224</v>
+        <v>2400555.984723817</v>
       </c>
       <c r="AE3" t="n">
-        <v>3130697.962588903</v>
+        <v>3284546.603354957</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.106335988019032e-07</v>
+        <v>1.804132817601948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.98502604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2831908.543001488</v>
+        <v>2971074.085420746</v>
       </c>
     </row>
     <row r="4">
@@ -46160,28 +46160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1969.585137806416</v>
+        <v>2070.851562910806</v>
       </c>
       <c r="AB4" t="n">
-        <v>2694.873277510491</v>
+        <v>2833.430467897689</v>
       </c>
       <c r="AC4" t="n">
-        <v>2437.678354183289</v>
+        <v>2563.011840786171</v>
       </c>
       <c r="AD4" t="n">
-        <v>1969585.137806416</v>
+        <v>2070851.562910806</v>
       </c>
       <c r="AE4" t="n">
-        <v>2694873.277510491</v>
+        <v>2833430.467897689</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.90930351491839e-07</v>
+        <v>1.963215468259004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.52669270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2437678.354183289</v>
+        <v>2563011.840786171</v>
       </c>
     </row>
     <row r="5">
@@ -46266,28 +46266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1808.334315507646</v>
+        <v>1909.515399757464</v>
       </c>
       <c r="AB5" t="n">
-        <v>2474.242788557106</v>
+        <v>2612.683211822106</v>
       </c>
       <c r="AC5" t="n">
-        <v>2238.10452943878</v>
+        <v>2363.332393009723</v>
       </c>
       <c r="AD5" t="n">
-        <v>1808334.315507646</v>
+        <v>1909515.399757464</v>
       </c>
       <c r="AE5" t="n">
-        <v>2474242.788557107</v>
+        <v>2612683.211822107</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.03268868779049e-06</v>
+        <v>2.045946420668375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2238104.52943878</v>
+        <v>2363332.393009723</v>
       </c>
     </row>
     <row r="6">
@@ -46372,28 +46372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1711.725573498589</v>
+        <v>1801.645439928186</v>
       </c>
       <c r="AB6" t="n">
-        <v>2342.058445663421</v>
+        <v>2465.090773896926</v>
       </c>
       <c r="AC6" t="n">
-        <v>2118.535674708977</v>
+        <v>2229.825970212833</v>
       </c>
       <c r="AD6" t="n">
-        <v>1711725.573498589</v>
+        <v>1801645.439928186</v>
       </c>
       <c r="AE6" t="n">
-        <v>2342058.445663421</v>
+        <v>2465090.773896926</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.057441822078364e-06</v>
+        <v>2.094986937036339e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.48665364583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2118535.674708977</v>
+        <v>2229825.970212833</v>
       </c>
     </row>
     <row r="7">
@@ -46478,28 +46478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1636.262349187981</v>
+        <v>1726.182215617577</v>
       </c>
       <c r="AB7" t="n">
-        <v>2238.806332959152</v>
+        <v>2361.838661192657</v>
       </c>
       <c r="AC7" t="n">
-        <v>2025.137798725954</v>
+        <v>2136.42809422981</v>
       </c>
       <c r="AD7" t="n">
-        <v>1636262.349187981</v>
+        <v>1726182.215617577</v>
       </c>
       <c r="AE7" t="n">
-        <v>2238806.332959152</v>
+        <v>2361838.661192657</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.074648269083351e-06</v>
+        <v>2.129076076462851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.2392578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2025137.798725954</v>
+        <v>2136428.09422981</v>
       </c>
     </row>
     <row r="8">
@@ -46584,28 +46584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1568.942491808191</v>
+        <v>1647.771732618157</v>
       </c>
       <c r="AB8" t="n">
-        <v>2146.696334149625</v>
+        <v>2254.553979126481</v>
       </c>
       <c r="AC8" t="n">
-        <v>1941.818648925612</v>
+        <v>2039.382511645032</v>
       </c>
       <c r="AD8" t="n">
-        <v>1568942.491808191</v>
+        <v>1647771.732618157</v>
       </c>
       <c r="AE8" t="n">
-        <v>2146696.334149625</v>
+        <v>2254553.979126481</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.088332928689656e-06</v>
+        <v>2.156187906650018e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.048828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1941818.648925612</v>
+        <v>2039382.511645032</v>
       </c>
     </row>
     <row r="9">
@@ -46690,28 +46690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1506.467736372658</v>
+        <v>1596.472854148275</v>
       </c>
       <c r="AB9" t="n">
-        <v>2061.215617571041</v>
+        <v>2184.364590457195</v>
       </c>
       <c r="AC9" t="n">
-        <v>1864.496091964349</v>
+        <v>1975.891899718917</v>
       </c>
       <c r="AD9" t="n">
-        <v>1506467.736372658</v>
+        <v>1596472.854148275</v>
       </c>
       <c r="AE9" t="n">
-        <v>2061215.617571041</v>
+        <v>2184364.590457195</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095577748481229e-06</v>
+        <v>2.170541228513813e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1864496.091964349</v>
+        <v>1975891.899718917</v>
       </c>
     </row>
     <row r="10">
@@ -46796,28 +46796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1499.488040912311</v>
+        <v>1589.493158687927</v>
       </c>
       <c r="AB10" t="n">
-        <v>2051.665690319762</v>
+        <v>2174.814663205916</v>
       </c>
       <c r="AC10" t="n">
-        <v>1855.857596366525</v>
+        <v>1967.253404121093</v>
       </c>
       <c r="AD10" t="n">
-        <v>1499488.040912311</v>
+        <v>1589493.158687927</v>
       </c>
       <c r="AE10" t="n">
-        <v>2051665.690319762</v>
+        <v>2174814.663205916</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.097690820920438e-06</v>
+        <v>2.17472761405742e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.92024739583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1855857.596366525</v>
+        <v>1967253.404121093</v>
       </c>
     </row>
     <row r="11">
@@ -46902,28 +46902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1504.881576525606</v>
+        <v>1594.886694301222</v>
       </c>
       <c r="AB11" t="n">
-        <v>2059.04536369187</v>
+        <v>2182.194336578024</v>
       </c>
       <c r="AC11" t="n">
-        <v>1862.532964069436</v>
+        <v>1973.928771824004</v>
       </c>
       <c r="AD11" t="n">
-        <v>1504881.576525606</v>
+        <v>1594886.694301222</v>
       </c>
       <c r="AE11" t="n">
-        <v>2059045.36369187</v>
+        <v>2182194.336578024</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.098294555903069e-06</v>
+        <v>2.175923724212736e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.912109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1862532.964069436</v>
+        <v>1973928.771824004</v>
       </c>
     </row>
   </sheetData>
